--- a/vary_flux/results/FVA_RBA_bounds_processed_for_reversibility.xlsx
+++ b/vary_flux/results/FVA_RBA_bounds_processed_for_reversibility.xlsx
@@ -578,7 +578,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E5" t="n">
-        <v>0.17341634</v>
+        <v>0.10514487</v>
       </c>
       <c r="F5" t="n">
         <v>0.0020137944</v>
@@ -607,7 +607,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E6" t="n">
-        <v>0.14946632</v>
+        <v>0.09168595</v>
       </c>
       <c r="F6" t="n">
         <v>0.0020137944</v>
@@ -636,7 +636,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.13138644</v>
+        <v>0.08133229</v>
       </c>
       <c r="F7" t="n">
         <v>0.0020137944</v>
@@ -665,7 +665,7 @@
         <v>0.00096775</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1162864</v>
+        <v>0.07215261000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0010068972</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.01665236</v>
+        <v>0.13446461</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E11" t="n">
-        <v>0.17341634</v>
+        <v>0.10514487</v>
       </c>
       <c r="F11" t="n">
         <v>0.0020137944</v>
@@ -781,7 +781,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E12" t="n">
-        <v>0.14946632</v>
+        <v>0.09168595</v>
       </c>
       <c r="F12" t="n">
         <v>0.0020137944</v>
@@ -810,7 +810,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E13" t="n">
-        <v>0.13138644</v>
+        <v>0.08133229</v>
       </c>
       <c r="F13" t="n">
         <v>0.0020137944</v>
@@ -839,7 +839,7 @@
         <v>0.00096775</v>
       </c>
       <c r="E14" t="n">
-        <v>0.11627767</v>
+        <v>0.07216483</v>
       </c>
       <c r="F14" t="n">
         <v>0.0010068972</v>
@@ -868,7 +868,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E15" t="n">
-        <v>0.17341634</v>
+        <v>0.10514487</v>
       </c>
       <c r="F15" t="n">
         <v>0.0020137944</v>
@@ -897,7 +897,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E16" t="n">
-        <v>0.14946632</v>
+        <v>0.09168595</v>
       </c>
       <c r="F16" t="n">
         <v>0.0020137944</v>
@@ -926,7 +926,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E17" t="n">
-        <v>0.13138644</v>
+        <v>0.08133229</v>
       </c>
       <c r="F17" t="n">
         <v>0.0020137944</v>
@@ -955,7 +955,7 @@
         <v>0.00096775</v>
       </c>
       <c r="E18" t="n">
-        <v>0.11627767</v>
+        <v>0.07216483</v>
       </c>
       <c r="F18" t="n">
         <v>0.0010068972</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.57628142</v>
+        <v>13.80301079</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.39114428</v>
+        <v>3.27264619</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E21" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F21" t="n">
         <v>0.1055128296</v>
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E22" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F22" t="n">
         <v>0.1055128296</v>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>6.73141905</v>
+        <v>1.14546339</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.23852982</v>
+        <v>0.1580216</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.23852982</v>
+        <v>0.1461532</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.23851153</v>
+        <v>0.1461532</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.20471392</v>
+        <v>0.12141698</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.17146786</v>
+        <v>0.10320937</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14753081</v>
+        <v>0.08975045</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.12944114</v>
+        <v>0.07939678</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.11531865</v>
+        <v>0.07118486</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.17704352</v>
+        <v>0.10491825</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.64128643</v>
+        <v>1.8457307</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>4.97146282</v>
+        <v>3.40190598</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.19671257</v>
+        <v>0.12109705</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.22034341</v>
+        <v>0.14009428</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>8.05479564</v>
+        <v>8.0546407</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1738,7 +1738,7 @@
         <v>0.47410855</v>
       </c>
       <c r="E45" t="n">
-        <v>4.10220309</v>
+        <v>3.57192124</v>
       </c>
       <c r="F45" t="n">
         <v>0.4932630916683263</v>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E48" t="n">
-        <v>2.85468468</v>
+        <v>0.2203321</v>
       </c>
       <c r="F48" t="n">
         <v>0.06199089479999999</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.13304417</v>
+        <v>0.13654627</v>
       </c>
       <c r="E49" t="n">
-        <v>2.38312713</v>
+        <v>0.30313073</v>
       </c>
       <c r="F49" t="n">
         <v>0.09459242159999999</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>13.11059949</v>
+        <v>6.49728747</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>13.11059949</v>
+        <v>6.49728747</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>13.11059949</v>
+        <v>6.49728747</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.20357806</v>
+        <v>0.20501493</v>
       </c>
       <c r="E53" t="n">
-        <v>3.95110597</v>
+        <v>0.36537035</v>
       </c>
       <c r="F53" t="n">
         <v>0.246357288</v>
@@ -1999,7 +1999,7 @@
         <v>0.03410112</v>
       </c>
       <c r="E54" t="n">
-        <v>0.52128096</v>
+        <v>0.46277019</v>
       </c>
       <c r="F54" t="n">
         <v>0.0354790874572416</v>
@@ -2028,7 +2028,7 @@
         <v>0.01251179</v>
       </c>
       <c r="E55" t="n">
-        <v>0.46602359</v>
+        <v>0.39973835</v>
       </c>
       <c r="F55" t="n">
         <v>0.0130170738028224</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>14.32117415</v>
+        <v>0.44858698</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.23852982</v>
+        <v>0.1580216</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.23852982</v>
+        <v>0.1461532</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.23852982</v>
+        <v>0.1461532</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.23851153</v>
+        <v>0.1461532</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.20471392</v>
+        <v>0.12141698</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.17146786</v>
+        <v>0.10320937</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.14753081</v>
+        <v>0.08975045</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.12944114</v>
+        <v>0.07939678</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.11531865</v>
+        <v>0.07118486</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.17704352</v>
+        <v>0.10491825</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2550,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.19671257</v>
+        <v>0.12109705</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.22034341</v>
+        <v>0.14009428</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.38725751</v>
+        <v>0.38726756</v>
       </c>
       <c r="E75" t="n">
-        <v>21.28431272</v>
+        <v>1.93151211</v>
       </c>
       <c r="F75" t="n">
         <v>0.4839117443999998</v>
@@ -2634,10 +2634,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.38725751</v>
+        <v>0.38726756</v>
       </c>
       <c r="E76" t="n">
-        <v>21.28431272</v>
+        <v>1.93151211</v>
       </c>
       <c r="F76" t="n">
         <v>0.4839117443999997</v>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E77" t="n">
-        <v>2.85468468</v>
+        <v>0.2203321</v>
       </c>
       <c r="F77" t="n">
         <v>0.06199089479999999</v>
@@ -2695,7 +2695,7 @@
         <v>0.67386011</v>
       </c>
       <c r="E78" t="n">
-        <v>14.22990451</v>
+        <v>7.59778841</v>
       </c>
       <c r="F78" t="n">
         <v>0.5904602296683259</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>3.25197877</v>
+        <v>3.20516812</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -2753,7 +2753,7 @@
         <v>2.651e-05</v>
       </c>
       <c r="E80" t="n">
-        <v>3.79512491</v>
+        <v>1.23138226</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>2.651e-05</v>
       </c>
       <c r="E81" t="n">
-        <v>3.79512491</v>
+        <v>1.23138226</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>1.51352583</v>
+        <v>0.21693779</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -2837,10 +2837,10 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.50156065</v>
+        <v>3.50185319</v>
       </c>
       <c r="E83" t="n">
-        <v>37.52320342</v>
+        <v>14.28165825</v>
       </c>
       <c r="F83" t="n">
         <v>2.716418817344921</v>
@@ -2927,7 +2927,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E86" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>9.744323830000001</v>
+        <v>6.27790598</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>62.42884219</v>
+        <v>10.79781208</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0.12897751</v>
       </c>
       <c r="E90" t="n">
-        <v>7.48108455</v>
+        <v>0.6828040399999999</v>
       </c>
       <c r="F90" t="n">
         <v>0.02063694479999978</v>
@@ -3069,10 +3069,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.12276205</v>
+        <v>0.12354355</v>
       </c>
       <c r="E91" t="n">
-        <v>3.38111898</v>
+        <v>3.33443202</v>
       </c>
       <c r="F91" t="n">
         <v>0.05309487120000655</v>
@@ -3101,7 +3101,7 @@
         <v>0.07215207</v>
       </c>
       <c r="E92" t="n">
-        <v>0.66042494</v>
+        <v>0.64407152</v>
       </c>
       <c r="F92" t="n">
         <v>0.0410345556000066</v>
@@ -3127,10 +3127,10 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.12276241</v>
+        <v>0.12354355</v>
       </c>
       <c r="E93" t="n">
-        <v>3.38111898</v>
+        <v>3.33443202</v>
       </c>
       <c r="F93" t="n">
         <v>0.05309487120000655</v>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.496e-05</v>
+        <v>1.497e-05</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00061931</v>
+        <v>0.00048141</v>
       </c>
       <c r="F94" t="n">
         <v>4.236e-06</v>
@@ -3188,7 +3188,7 @@
         <v>0.02638742</v>
       </c>
       <c r="E95" t="n">
-        <v>4.04431245</v>
+        <v>1.77030797</v>
       </c>
       <c r="F95" t="n">
         <v>0.027453516</v>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E96" t="n">
-        <v>2.85468468</v>
+        <v>0.2203321</v>
       </c>
       <c r="F96" t="n">
         <v>0.06199089479999999</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>4.26256956</v>
+        <v>0.83399243</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0.05573979</v>
       </c>
       <c r="E98" t="n">
-        <v>0.91711524</v>
+        <v>0.91464216</v>
       </c>
       <c r="F98" t="n">
         <v>0.0579849096</v>
@@ -3301,10 +3301,10 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>0.00037073</v>
+        <v>0.00037009</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.64179125</v>
+        <v>0.42191616</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3359,10 +3359,10 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.15778858</v>
+        <v>0.15856627</v>
       </c>
       <c r="E101" t="n">
-        <v>1.01867026</v>
+        <v>0.97207794</v>
       </c>
       <c r="F101" t="n">
         <v>0.07202979119999971</v>
@@ -3391,7 +3391,7 @@
         <v>0.07215207</v>
       </c>
       <c r="E102" t="n">
-        <v>0.66042494</v>
+        <v>0.64407152</v>
       </c>
       <c r="F102" t="n">
         <v>0.04103455559999971</v>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7.919000000000001e-05</v>
+        <v>8.017e-05</v>
       </c>
       <c r="E103" t="n">
-        <v>20.65187199</v>
+        <v>1.53099943</v>
       </c>
       <c r="F103" t="n">
         <v>3.3888e-06</v>
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7.879e-05</v>
+        <v>7.998e-05</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00192775</v>
+        <v>0.00019479</v>
       </c>
       <c r="F105" t="n">
         <v>3.3888e-06</v>
@@ -3504,10 +3504,10 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.15989782</v>
+        <v>0.16169436</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1924073</v>
+        <v>0.19240668</v>
       </c>
       <c r="F106" t="n">
         <v>0.1569044052</v>
@@ -3536,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>2.56318557</v>
+        <v>0.13436739</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2.74743272</v>
+        <v>0.11707325</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>2.62203483</v>
+        <v>0.13407833</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>4.63808574</v>
+        <v>1.79114326</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>4.64649769</v>
+        <v>0.61560174</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>4.61229695</v>
+        <v>1.80250032</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -3710,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>1.24076984</v>
+        <v>0.92384621</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>1.28074894</v>
+        <v>0.45890192</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>17.77404493</v>
+        <v>17.54496192</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>8.118000000000001e-05</v>
       </c>
       <c r="E116" t="n">
-        <v>1.51835352</v>
+        <v>0.12882128</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>17.6819166</v>
+        <v>9.90919579</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>9.796604459999999</v>
+        <v>8.910930280000001</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>1.32760421</v>
+        <v>1.31179809</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>2.36916763</v>
+        <v>2.35614014</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.02729787</v>
+        <v>0.0273126</v>
       </c>
       <c r="E121" t="n">
-        <v>2.1244586</v>
+        <v>1.32889968</v>
       </c>
       <c r="F121" t="n">
         <v>0.0104387748</v>
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.02729787</v>
+        <v>0.0273126</v>
       </c>
       <c r="E122" t="n">
-        <v>1.50196003</v>
+        <v>0.96091536</v>
       </c>
       <c r="F122" t="n">
         <v>0.0104387748</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>28.26669055</v>
+        <v>10.41065172</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4029,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>1.52825117</v>
+        <v>1.51078465</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E125" t="n">
-        <v>1.61772312</v>
+        <v>1.60019888</v>
       </c>
       <c r="F125" t="n">
         <v>0.06199089479999999</v>
@@ -4084,10 +4084,10 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E126" t="n">
-        <v>1.61772312</v>
+        <v>1.60019888</v>
       </c>
       <c r="F126" t="n">
         <v>0.06199089479999999</v>
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E127" t="n">
-        <v>0.10151676</v>
+        <v>0.09590831</v>
       </c>
       <c r="F127" t="n">
         <v>0.06199089479999999</v>
@@ -4142,10 +4142,10 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.32787042</v>
+        <v>0.32788943</v>
       </c>
       <c r="E128" t="n">
-        <v>4.18647848</v>
+        <v>3.17670764</v>
       </c>
       <c r="F128" t="n">
         <v>0.20235372</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>7.70388561</v>
+        <v>3.98936744</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>5.40594408</v>
+        <v>3.88629468</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -4229,10 +4229,10 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.09812032</v>
+        <v>0.09854154</v>
       </c>
       <c r="E131" t="n">
-        <v>7.80309707</v>
+        <v>4.09226938</v>
       </c>
       <c r="F131" t="n">
         <v>0.07451759399999999</v>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.09812032</v>
+        <v>0.09854154</v>
       </c>
       <c r="E132" t="n">
-        <v>0.11549426</v>
+        <v>0.11394443</v>
       </c>
       <c r="F132" t="n">
         <v>0.07451759399999999</v>
@@ -4287,10 +4287,10 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.06380455</v>
+        <v>0.06380474</v>
       </c>
       <c r="E133" t="n">
-        <v>0.42640663</v>
+        <v>0.33353056</v>
       </c>
       <c r="F133" t="n">
         <v>0.04322583840000002</v>
@@ -4316,10 +4316,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.32787042</v>
+        <v>0.32788943</v>
       </c>
       <c r="E134" t="n">
-        <v>4.18647848</v>
+        <v>3.17670764</v>
       </c>
       <c r="F134" t="n">
         <v>0.20235372</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>9.16125946</v>
+        <v>0.36778767</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.08366788</v>
+        <v>0.08407326</v>
       </c>
       <c r="E136" t="n">
-        <v>0.11148158</v>
+        <v>0.11148151</v>
       </c>
       <c r="F136" t="n">
         <v>0.07451759399999999</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>38.02957665</v>
+        <v>12.44270895</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2.80078845</v>
+        <v>2.78985974</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2.80078845</v>
+        <v>2.78985974</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>28.26863306</v>
+        <v>10.41065172</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>2.88183577</v>
+        <v>2.80748975</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F142" t="n">
         <v>0.0309952356</v>
@@ -4577,10 +4577,10 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4.45032195</v>
+        <v>10.59259138</v>
       </c>
       <c r="E143" t="n">
-        <v>74.93640361</v>
+        <v>16.30830218</v>
       </c>
       <c r="F143" t="n">
         <v>3.396015265900847</v>
@@ -4609,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>7.48059922</v>
+        <v>0.7665821</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -4638,7 +4638,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E145" t="n">
-        <v>0.48626566</v>
+        <v>0.26954094</v>
       </c>
       <c r="F145" t="n">
         <v>0.0174832428</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.22546644</v>
+        <v>0.20585882</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E147" t="n">
-        <v>0.22924767</v>
+        <v>0.21934672</v>
       </c>
       <c r="F147" t="n">
         <v>0.0174832428</v>
@@ -4725,7 +4725,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E148" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F148" t="n">
         <v>0.0174832428</v>
@@ -4754,7 +4754,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E149" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F149" t="n">
         <v>0.0174832428</v>
@@ -4783,7 +4783,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E150" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F150" t="n">
         <v>0.0174832428</v>
@@ -4812,7 +4812,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E151" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F151" t="n">
         <v>0.0174832428</v>
@@ -4841,7 +4841,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E152" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F152" t="n">
         <v>0.0174832428</v>
@@ -4870,7 +4870,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E153" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F153" t="n">
         <v>0.0174832428</v>
@@ -4899,7 +4899,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E154" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F154" t="n">
         <v>0.0174832428</v>
@@ -4928,7 +4928,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E155" t="n">
-        <v>0.41674626</v>
+        <v>0.26018814</v>
       </c>
       <c r="F155" t="n">
         <v>0.0174832428</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.22546644</v>
+        <v>0.20585882</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.22688026</v>
+        <v>0.21784441</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5015,7 +5015,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>4.06108877</v>
+        <v>0.33686472</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.60951877</v>
+        <v>0.35590046</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>3.05314853</v>
+        <v>3.02767793</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.14591283</v>
+        <v>0.14592231</v>
       </c>
       <c r="E161" t="n">
-        <v>1.68157205</v>
+        <v>1.66404824</v>
       </c>
       <c r="F161" t="n">
         <v>0.1052167332</v>
@@ -5131,7 +5131,7 @@
         <v>0.02487188</v>
       </c>
       <c r="E162" t="n">
-        <v>4.04279691</v>
+        <v>1.0466971</v>
       </c>
       <c r="F162" t="n">
         <v>0.0258768768</v>
@@ -5392,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="n">
-        <v>12.56690936</v>
+        <v>6.33097606</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -5421,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>12.56604588</v>
+        <v>6.33097606</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>14.36448047</v>
+        <v>6.40178963</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>14.36448047</v>
+        <v>6.40178963</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>38.30457961</v>
+        <v>38.23111553</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>2.47697825</v>
+        <v>2.45581431</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.23091646</v>
+        <v>0.22042913</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>2.47697825</v>
+        <v>2.45581431</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>2.47697825</v>
+        <v>2.45581431</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -5650,10 +5650,10 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.13221685</v>
+        <v>0.13283047</v>
       </c>
       <c r="E180" t="n">
-        <v>4.9831039</v>
+        <v>2.02499629</v>
       </c>
       <c r="F180" t="n">
         <v>0.09186231959999999</v>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E181" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F181" t="n">
         <v>0.1023010944</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>3.85923291</v>
+        <v>2.04561283</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.45102712</v>
+        <v>0.44595584</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -5798,7 +5798,7 @@
         <v>4.2e-07</v>
       </c>
       <c r="E185" t="n">
-        <v>0.00023737</v>
+        <v>2.022e-05</v>
       </c>
       <c r="F185" t="n">
         <v>4.236e-07</v>
@@ -5827,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>7.27536119</v>
+        <v>0.63235716</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>7.27536119</v>
+        <v>0.63235716</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>1.41937903</v>
+        <v>0.42075689</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>3.85923291</v>
+        <v>2.04561283</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="n">
-        <v>21.28431272</v>
+        <v>2.12039665</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="n">
-        <v>1.39405847</v>
+        <v>0.79767137</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.02865488</v>
+        <v>0.02869294</v>
       </c>
       <c r="E192" t="n">
-        <v>3.90562935</v>
+        <v>2.07433515</v>
       </c>
       <c r="F192" t="n">
         <v>0.0200528004</v>
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>6.15861882</v>
+        <v>4.89718401</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="n">
-        <v>1.57573431</v>
+        <v>0.44698024</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -6088,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>2.38192303</v>
+        <v>0.30313073</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -6114,10 +6114,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.0413326</v>
+        <v>0.04135251</v>
       </c>
       <c r="E196" t="n">
-        <v>0.05443005</v>
+        <v>0.05442381</v>
       </c>
       <c r="F196" t="n">
         <v>0.0022484688</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="n">
-        <v>2.96364891</v>
+        <v>2.93821745</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -6175,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>28.21738623</v>
+        <v>10.13004613</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -6204,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>3.87691662</v>
+        <v>2.04511358</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>34.49511776</v>
+        <v>10.58637496</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -6262,7 +6262,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="n">
-        <v>32.70086625</v>
+        <v>6.77599587</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>29.013286</v>
+        <v>10.44236155</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="n">
-        <v>1.5484347</v>
+        <v>1.54072974</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -6346,10 +6346,10 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>0.0008735700000000001</v>
+        <v>0.00087358</v>
       </c>
       <c r="E204" t="n">
-        <v>0.00288381</v>
+        <v>0.00181053</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -6378,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.36416725</v>
+        <v>0.2712764</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.36148006</v>
+        <v>0.2610914</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>0.36392439</v>
+        <v>0.26486001</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -6462,10 +6462,10 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E208" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F208" t="n">
         <v>0.1023010944</v>
@@ -6494,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="E209" t="n">
-        <v>14.86330259</v>
+        <v>6.48194234</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -6523,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>14.86330259</v>
+        <v>6.48194234</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -6552,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="E211" t="n">
-        <v>87.27124139</v>
+        <v>10.74859591</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="E212" t="n">
-        <v>65.09386332</v>
+        <v>10.52649739</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="E213" t="n">
-        <v>19.61103377</v>
+        <v>9.969256440000001</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0.20357806</v>
+        <v>0.20501493</v>
       </c>
       <c r="E214" t="n">
-        <v>3.95110597</v>
+        <v>0.36537035</v>
       </c>
       <c r="F214" t="n">
         <v>0.246357288</v>
@@ -6665,10 +6665,10 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>0.13304417</v>
+        <v>0.13654627</v>
       </c>
       <c r="E215" t="n">
-        <v>2.38312713</v>
+        <v>0.30313073</v>
       </c>
       <c r="F215" t="n">
         <v>0.09459242159999999</v>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>15.59125806</v>
+        <v>9.92787792</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>38.30473054</v>
+        <v>38.23126641</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>14.36463454</v>
+        <v>6.4034346</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>0.00162816</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3641655</v>
+        <v>0.27130291</v>
       </c>
       <c r="F219" t="n">
         <v>0.001674490799999984</v>
@@ -6868,10 +6868,10 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0.06380455</v>
+        <v>0.06380474</v>
       </c>
       <c r="E222" t="n">
-        <v>0.42640663</v>
+        <v>0.33353056</v>
       </c>
       <c r="F222" t="n">
         <v>0.04322583840000005</v>
@@ -6897,10 +6897,10 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.00043678</v>
+        <v>0.00043679</v>
       </c>
       <c r="E223" t="n">
-        <v>0.00144191</v>
+        <v>0.00090526</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -6955,10 +6955,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E225" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F225" t="n">
         <v>0.1023010944</v>
@@ -6984,10 +6984,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E226" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F226" t="n">
         <v>0.1023010944</v>
@@ -7016,7 +7016,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E227" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>0.03360902</v>
       </c>
       <c r="E228" t="n">
-        <v>1.06213054</v>
+        <v>0.88855314</v>
       </c>
       <c r="F228" t="n">
         <v>0.0349669092</v>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="n">
-        <v>32.70086625</v>
+        <v>6.77599587</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -7161,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>33.56043447</v>
+        <v>6.78059136</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -7190,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>25.89330361</v>
+        <v>6.67683598</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -7277,7 +7277,7 @@
         <v>7.994e-05</v>
       </c>
       <c r="E236" t="n">
-        <v>0.45114227</v>
+        <v>0.44603578</v>
       </c>
       <c r="F236" t="n">
         <v>8.048399999982525e-05</v>
@@ -7306,7 +7306,7 @@
         <v>0.10082706</v>
       </c>
       <c r="E237" t="n">
-        <v>3.18639163</v>
+        <v>2.66565942</v>
       </c>
       <c r="F237" t="n">
         <v>0.1049007276</v>
@@ -7335,7 +7335,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E238" t="n">
-        <v>1.51835352</v>
+        <v>0.12882128</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -7361,10 +7361,10 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>0.00043678</v>
+        <v>0.00043679</v>
       </c>
       <c r="E239" t="n">
-        <v>0.00144191</v>
+        <v>0.00090526</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>0.00160165</v>
       </c>
       <c r="E240" t="n">
-        <v>25.89668467</v>
+        <v>6.67958784</v>
       </c>
       <c r="F240" t="n">
         <v>0.001647804</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>209.05549883</v>
+        <v>10.84984965</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>18.01377778</v>
+        <v>6.57032697</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>0.23852982</v>
+        <v>0.1580216</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="E245" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -7567,7 +7567,7 @@
         <v>0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.23852982</v>
+        <v>0.1461532</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="E248" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -7654,7 +7654,7 @@
         <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>0.23851153</v>
+        <v>0.1461532</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -7741,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>0.20471392</v>
+        <v>0.12141698</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>0.17146786</v>
+        <v>0.10320937</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="E255" t="n">
-        <v>0.14753081</v>
+        <v>0.08975045</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="E256" t="n">
-        <v>0.12944114</v>
+        <v>0.07939678</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>0.11531865</v>
+        <v>0.07118486</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.17704352</v>
+        <v>0.10491825</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -7944,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>0.19671257</v>
+        <v>0.12109705</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0.22034341</v>
+        <v>0.14009428</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>0.22589363</v>
+        <v>0.1580216</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>0.22589363</v>
+        <v>0.1580216</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>0.19545393</v>
+        <v>0.12949731</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="E266" t="n">
-        <v>0.19545393</v>
+        <v>0.12949731</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="E267" t="n">
-        <v>0.22589363</v>
+        <v>0.1580216</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.19545393</v>
+        <v>0.12949731</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.22589363</v>
+        <v>0.1580216</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="E270" t="n">
-        <v>0.19545393</v>
+        <v>0.12949731</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E271" t="n">
-        <v>0.17341634</v>
+        <v>0.10514487</v>
       </c>
       <c r="F271" t="n">
         <v>0.0020137944</v>
@@ -8321,7 +8321,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E272" t="n">
-        <v>0.14945515</v>
+        <v>0.09168595</v>
       </c>
       <c r="F272" t="n">
         <v>0.0020137944</v>
@@ -8350,7 +8350,7 @@
         <v>0.0019355</v>
       </c>
       <c r="E273" t="n">
-        <v>0.13138644</v>
+        <v>0.08133229</v>
       </c>
       <c r="F273" t="n">
         <v>0.0020137944</v>
@@ -8379,7 +8379,7 @@
         <v>0.00096775</v>
       </c>
       <c r="E274" t="n">
-        <v>0.1162864</v>
+        <v>0.07215261000000001</v>
       </c>
       <c r="F274" t="n">
         <v>0.0010068972</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="E275" t="n">
-        <v>8.699104070000001</v>
+        <v>8.55832502</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -8437,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>18.3873018</v>
+        <v>0.54787363</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="E277" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="E280" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -8582,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="E283" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>0.19671257</v>
+        <v>0.12109705</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>0.22034341</v>
+        <v>0.14009428</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="E286" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -8756,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="E287" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E291" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -8901,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="E292" t="n">
-        <v>2.80792523</v>
+        <v>1.22409959</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="E293" t="n">
-        <v>2.80773228</v>
+        <v>1.22431046</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -8959,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="E294" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="E295" t="n">
-        <v>11.9890362</v>
+        <v>6.40816011</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="E296" t="n">
-        <v>0.92824737</v>
+        <v>0.92610247</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="E297" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0.78701277</v>
+        <v>0.34309402</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="E299" t="n">
-        <v>0.44509124</v>
+        <v>0.32732383</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -9162,7 +9162,7 @@
         <v>0</v>
       </c>
       <c r="E301" t="n">
-        <v>11.98903607</v>
+        <v>6.40705624</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="E302" t="n">
-        <v>0.92824736</v>
+        <v>0.92610246</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -9220,7 +9220,7 @@
         <v>0</v>
       </c>
       <c r="E303" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="E304" t="n">
-        <v>14.36359954</v>
+        <v>6.40083034</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -9278,7 +9278,7 @@
         <v>0</v>
       </c>
       <c r="E305" t="n">
-        <v>14.36359954</v>
+        <v>6.40193301</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -9307,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>15.66720619</v>
+        <v>6.4855908</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="E307" t="n">
-        <v>17.92724336</v>
+        <v>9.99682707</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>0</v>
       </c>
       <c r="E308" t="n">
-        <v>16.25515805</v>
+        <v>10.03397378</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>4.2e-07</v>
       </c>
       <c r="E309" t="n">
-        <v>0.00023737</v>
+        <v>2.022e-05</v>
       </c>
       <c r="F309" t="n">
         <v>4.236e-07</v>
@@ -9423,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="E310" t="n">
-        <v>2.85241087</v>
+        <v>2.26167783</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -9449,10 +9449,10 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>8.132328579999999</v>
+        <v>8.457354069999999</v>
       </c>
       <c r="E311" t="n">
-        <v>61.47984489</v>
+        <v>14.92560545</v>
       </c>
       <c r="F311" t="n">
         <v>7.529099976073312</v>
@@ -9478,10 +9478,10 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>16.26366851</v>
+        <v>16.91470813</v>
       </c>
       <c r="E312" t="n">
-        <v>122.95968978</v>
+        <v>29.8512109</v>
       </c>
       <c r="F312" t="n">
         <v>15.05819995214662</v>
@@ -9510,7 +9510,7 @@
         <v>0</v>
       </c>
       <c r="E313" t="n">
-        <v>2.0973621</v>
+        <v>1.29993611</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>0</v>
       </c>
       <c r="E315" t="n">
-        <v>19.5312631</v>
+        <v>0.58581699</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="E316" t="n">
-        <v>20.89182587</v>
+        <v>1.53321256</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>0.02638742</v>
       </c>
       <c r="E317" t="n">
-        <v>4.04431245</v>
+        <v>1.77030797</v>
       </c>
       <c r="F317" t="n">
         <v>0.027453516</v>
@@ -9655,7 +9655,7 @@
         <v>0.02638742</v>
       </c>
       <c r="E318" t="n">
-        <v>24.58748452</v>
+        <v>9.95426535</v>
       </c>
       <c r="F318" t="n">
         <v>0.027453516</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="E319" t="n">
-        <v>19.5312631</v>
+        <v>0.58581699</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="E320" t="n">
-        <v>38.30607097</v>
+        <v>10.77438424</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -9739,10 +9739,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>0.04615374</v>
+        <v>0.04615423</v>
       </c>
       <c r="E321" t="n">
-        <v>4.29016295</v>
+        <v>1.22832275</v>
       </c>
       <c r="F321" t="n">
         <v>0.06777218759999999</v>
@@ -9771,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="E322" t="n">
-        <v>4.29048993</v>
+        <v>1.22832275</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>8.01776737</v>
+        <v>7.92660502</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -9829,7 +9829,7 @@
         <v>0</v>
       </c>
       <c r="E324" t="n">
-        <v>11.55098018</v>
+        <v>8.36832188</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>0.48453232</v>
       </c>
       <c r="E325" t="n">
-        <v>19.55117829</v>
+        <v>13.4918205</v>
       </c>
       <c r="F325" t="n">
         <v>0.7257034715999999</v>
@@ -9884,10 +9884,10 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0.07216643</v>
+        <v>0.07216662</v>
       </c>
       <c r="E326" t="n">
-        <v>0.66044066</v>
+        <v>0.64408839</v>
       </c>
       <c r="F326" t="n">
         <v>0.04103455560001033</v>
@@ -9916,7 +9916,7 @@
         <v>0.00647395</v>
       </c>
       <c r="E327" t="n">
-        <v>8.02424132</v>
+        <v>7.93307897</v>
       </c>
       <c r="F327" t="n">
         <v>0.0096966276</v>
@@ -9942,10 +9942,10 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-2.17418224</v>
+        <v>-0.4118184</v>
       </c>
       <c r="E328" t="n">
-        <v>1.89713699</v>
+        <v>0.08690075</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="E329" t="n">
-        <v>23.66167984</v>
+        <v>10.42508054</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -10003,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>13.64162613</v>
+        <v>6.51361162</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="E331" t="n">
-        <v>18.91737035</v>
+        <v>6.6675941</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>12.72568772</v>
+        <v>12.60928949</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -10087,10 +10087,10 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0.64670623</v>
+        <v>0.64885782</v>
       </c>
       <c r="E333" t="n">
-        <v>33.22211947</v>
+        <v>11.19555175</v>
       </c>
       <c r="F333" t="n">
         <v>0.4787959272000064</v>
@@ -10119,7 +10119,7 @@
         <v>0.06186769</v>
       </c>
       <c r="E334" t="n">
-        <v>0.07707733</v>
+        <v>0.07637832999999999</v>
       </c>
       <c r="F334" t="n">
         <v>0.1243028784</v>
@@ -10148,7 +10148,7 @@
         <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>4.29048993</v>
+        <v>1.22832275</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="E336" t="n">
-        <v>6.15861882</v>
+        <v>4.89718401</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="E337" t="n">
-        <v>6.73141346</v>
+        <v>1.14544219</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="E338" t="n">
-        <v>4.78684233</v>
+        <v>4.75793928</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="E339" t="n">
-        <v>19.97264029</v>
+        <v>12.52639386</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="E340" t="n">
-        <v>32.55200291</v>
+        <v>10.52587627</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -10319,10 +10319,10 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>0.07216643</v>
+        <v>0.07216662</v>
       </c>
       <c r="E341" t="n">
-        <v>0.66044066</v>
+        <v>0.64408839</v>
       </c>
       <c r="F341" t="n">
         <v>0.04103455559999971</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>3.75688969</v>
+        <v>3.73985682</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -10377,10 +10377,10 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0.09309855</v>
+        <v>0.09313973</v>
       </c>
       <c r="E343" t="n">
-        <v>0.12002226</v>
+        <v>0.11823887</v>
       </c>
       <c r="F343" t="n">
         <v>0.1243028784</v>
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>15.59125806</v>
+        <v>9.92787792</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -10438,7 +10438,7 @@
         <v>0.13201943</v>
       </c>
       <c r="E345" t="n">
-        <v>19.04938978</v>
+        <v>13.13930761</v>
       </c>
       <c r="F345" t="n">
         <v>0.1977305496</v>
@@ -10467,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="E346" t="n">
-        <v>29.10648731</v>
+        <v>10.38479854</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -10496,7 +10496,7 @@
         <v>0</v>
       </c>
       <c r="E347" t="n">
-        <v>23.61643898</v>
+        <v>5.00409554</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -10522,10 +10522,10 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0.13015686</v>
+        <v>0.13209234</v>
       </c>
       <c r="E348" t="n">
-        <v>0.15955004</v>
+        <v>0.15725828</v>
       </c>
       <c r="F348" t="n">
         <v>0.1427718384</v>
@@ -10551,10 +10551,10 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>0.03495734</v>
+        <v>0.03499648</v>
       </c>
       <c r="E349" t="n">
-        <v>3.08966374</v>
+        <v>2.36269992</v>
       </c>
       <c r="F349" t="n">
         <v>0.01893492000000002</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="E350" t="n">
-        <v>11.55098018</v>
+        <v>8.36832188</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -10612,7 +10612,7 @@
         <v>0</v>
       </c>
       <c r="E351" t="n">
-        <v>1.93795086</v>
+        <v>1.68003744</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -10641,7 +10641,7 @@
         <v>0.03360902</v>
       </c>
       <c r="E352" t="n">
-        <v>1.06213054</v>
+        <v>0.88855314</v>
       </c>
       <c r="F352" t="n">
         <v>0.0349669092</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="E353" t="n">
-        <v>59.13742178</v>
+        <v>10.59797027</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -10699,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="E354" t="n">
-        <v>4.39114428</v>
+        <v>3.27264619</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="E355" t="n">
-        <v>6.15861882</v>
+        <v>4.89718401</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -10757,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="E356" t="n">
-        <v>8.56618302</v>
+        <v>1.42039717</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -10786,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="E357" t="n">
-        <v>8.56618302</v>
+        <v>1.42039717</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="E358" t="n">
-        <v>6.15861882</v>
+        <v>4.89718401</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0.00043678</v>
+        <v>0.00043679</v>
       </c>
       <c r="E359" t="n">
-        <v>0.00144191</v>
+        <v>0.00090526</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="E361" t="n">
-        <v>3.05464188</v>
+        <v>2.32768238</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -10931,7 +10931,7 @@
         <v>0</v>
       </c>
       <c r="E362" t="n">
-        <v>12.33804824</v>
+        <v>6.42571294</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="E363" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -10989,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>0.23852982</v>
+        <v>0.1580216</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -11018,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="E365" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>0.23852982</v>
+        <v>0.1461532</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="E367" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -11105,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="E368" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
@@ -11134,7 +11134,7 @@
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>0.23851153</v>
+        <v>0.1461532</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="E371" t="n">
-        <v>0.25187568</v>
+        <v>0.16627068</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>0.20471392</v>
+        <v>0.12141698</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>0.21444904</v>
+        <v>0.13498493</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>0.17146786</v>
+        <v>0.10320937</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="E375" t="n">
-        <v>0.14753081</v>
+        <v>0.08975045</v>
       </c>
       <c r="F375" t="n">
         <v>0</v>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>0.12944114</v>
+        <v>0.07939678</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="E377" t="n">
-        <v>0.11531865</v>
+        <v>0.07118486</v>
       </c>
       <c r="F377" t="n">
         <v>0</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="E378" t="n">
-        <v>0.17704352</v>
+        <v>0.10491825</v>
       </c>
       <c r="F378" t="n">
         <v>0</v>
@@ -11424,7 +11424,7 @@
         <v>0</v>
       </c>
       <c r="E379" t="n">
-        <v>0.19671257</v>
+        <v>0.12109705</v>
       </c>
       <c r="F379" t="n">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="E380" t="n">
-        <v>0.22034341</v>
+        <v>0.14009428</v>
       </c>
       <c r="F380" t="n">
         <v>0</v>
@@ -11479,10 +11479,10 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E381" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F381" t="n">
         <v>0.1055128296</v>
@@ -11508,10 +11508,10 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E382" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F382" t="n">
         <v>0.1055128296</v>
@@ -11540,7 +11540,7 @@
         <v>0</v>
       </c>
       <c r="E383" t="n">
-        <v>1.51377655</v>
+        <v>0.24879096</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="E384" t="n">
-        <v>1.68814989</v>
+        <v>0.23930745</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>0.86135964</v>
+        <v>0.85888653</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
@@ -11627,7 +11627,7 @@
         <v>4.2e-07</v>
       </c>
       <c r="E386" t="n">
-        <v>0.0001593</v>
+        <v>2.022e-05</v>
       </c>
       <c r="F386" t="n">
         <v>4.236e-07</v>
@@ -11656,7 +11656,7 @@
         <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>2.35607638</v>
+        <v>2.3380245</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>13.201</v>
+        <v>13.2</v>
       </c>
       <c r="E388" t="n">
-        <v>32.11737035</v>
+        <v>20.65048275</v>
       </c>
       <c r="F388" t="n">
         <v>13.21</v>
@@ -11711,10 +11711,10 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0.08398598</v>
+        <v>0.08438134</v>
       </c>
       <c r="E389" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F389" t="n">
         <v>0.1055128296</v>
@@ -11740,10 +11740,10 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E390" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F390" t="n">
         <v>0.0309952356</v>
@@ -11769,10 +11769,10 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E391" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F391" t="n">
         <v>0.0309952356</v>
@@ -11798,10 +11798,10 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E392" t="n">
-        <v>0.10513333</v>
+        <v>0.10512328</v>
       </c>
       <c r="F392" t="n">
         <v>0.0309952356</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E393" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F393" t="n">
         <v>0</v>
@@ -11859,7 +11859,7 @@
         <v>0.10082706</v>
       </c>
       <c r="E394" t="n">
-        <v>4.97146282</v>
+        <v>3.40190598</v>
       </c>
       <c r="F394" t="n">
         <v>0.1049007276</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="E395" t="n">
-        <v>3.64128643</v>
+        <v>1.8457307</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>0</v>
       </c>
       <c r="E396" t="n">
-        <v>4.97146282</v>
+        <v>3.40190598</v>
       </c>
       <c r="F396" t="n">
         <v>0</v>
@@ -11943,10 +11943,10 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E397" t="n">
-        <v>2.35609306</v>
+        <v>2.33804151</v>
       </c>
       <c r="F397" t="n">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>4.2e-07</v>
       </c>
       <c r="E398" t="n">
-        <v>0.00015435</v>
+        <v>1.84e-05</v>
       </c>
       <c r="F398" t="n">
         <v>4.236e-07</v>
@@ -12033,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="E400" t="n">
-        <v>4.18647848</v>
+        <v>3.17106294</v>
       </c>
       <c r="F400" t="n">
         <v>0</v>
@@ -12062,7 +12062,7 @@
         <v>0</v>
       </c>
       <c r="E401" t="n">
-        <v>3.96281545</v>
+        <v>3.11055275</v>
       </c>
       <c r="F401" t="n">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0.08662307</v>
       </c>
       <c r="E402" t="n">
-        <v>2.4727737</v>
+        <v>0.50586394</v>
       </c>
       <c r="F402" t="n">
         <v>0.018307992</v>
@@ -12117,10 +12117,10 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0.0998653</v>
+        <v>0.09989845</v>
       </c>
       <c r="E403" t="n">
-        <v>4.09628258</v>
+        <v>2.94250036</v>
       </c>
       <c r="F403" t="n">
         <v>0.0894533064</v>
@@ -12146,10 +12146,10 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E404" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F404" t="n">
         <v>0.0309952356</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="E405" t="n">
-        <v>7.12327171</v>
+        <v>6.02714512</v>
       </c>
       <c r="F405" t="n">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="E406" t="n">
-        <v>209.05549103</v>
+        <v>10.84983021</v>
       </c>
       <c r="F406" t="n">
         <v>0</v>
@@ -12233,10 +12233,10 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>0</v>
+        <v>0.05766638</v>
       </c>
       <c r="E407" t="n">
-        <v>21.06764804</v>
+        <v>1.93151211</v>
       </c>
       <c r="F407" t="n">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="E408" t="n">
-        <v>0.22589363</v>
+        <v>0.1580216</v>
       </c>
       <c r="F408" t="n">
         <v>0</v>
@@ -12294,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="E409" t="n">
-        <v>3.37579431</v>
+        <v>0.34265604</v>
       </c>
       <c r="F409" t="n">
         <v>0</v>
@@ -12323,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="E410" t="n">
-        <v>5.68566176</v>
+        <v>1.1935736</v>
       </c>
       <c r="F410" t="n">
         <v>0</v>
@@ -12349,10 +12349,10 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E411" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F411" t="n">
         <v>0.0309952356</v>
@@ -12378,10 +12378,10 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E412" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F412" t="n">
         <v>0.0309952356</v>
@@ -12407,10 +12407,10 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>0.02729787</v>
+        <v>0.0273126</v>
       </c>
       <c r="E413" t="n">
-        <v>2.1244586</v>
+        <v>1.32889968</v>
       </c>
       <c r="F413" t="n">
         <v>0.0104387748</v>
@@ -12436,10 +12436,10 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0.13304417</v>
+        <v>0.13654654</v>
       </c>
       <c r="E414" t="n">
-        <v>0.1605757</v>
+        <v>0.16050345</v>
       </c>
       <c r="F414" t="n">
         <v>0.09459242159999999</v>
@@ -12465,10 +12465,10 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0.15778858</v>
+        <v>0.15856627</v>
       </c>
       <c r="E415" t="n">
-        <v>1.01867026</v>
+        <v>0.97207794</v>
       </c>
       <c r="F415" t="n">
         <v>0.07202979120001446</v>
@@ -12494,10 +12494,10 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>0.03495734</v>
+        <v>0.03499648</v>
       </c>
       <c r="E416" t="n">
-        <v>0.55039065</v>
+        <v>0.5352186</v>
       </c>
       <c r="F416" t="n">
         <v>0.01893492000000001</v>
@@ -12526,7 +12526,7 @@
         <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>1.3345794</v>
+        <v>0.92970824</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="E418" t="n">
-        <v>13.17923227</v>
+        <v>9.55574406</v>
       </c>
       <c r="F418" t="n">
         <v>0</v>
@@ -12613,7 +12613,7 @@
         <v>0.03360902</v>
       </c>
       <c r="E420" t="n">
-        <v>1.06205025</v>
+        <v>0.88855314</v>
       </c>
       <c r="F420" t="n">
         <v>0.0349669092</v>
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>12.98374733</v>
+        <v>5.17685692</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
@@ -12668,10 +12668,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>0.1315527</v>
+        <v>0.13197227</v>
       </c>
       <c r="E422" t="n">
-        <v>2.66690857</v>
+        <v>0.28408487</v>
       </c>
       <c r="F422" t="n">
         <v>0.128638848</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="E423" t="n">
-        <v>2.6033658</v>
+        <v>0.25965285</v>
       </c>
       <c r="F423" t="n">
         <v>0</v>
@@ -12729,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="E424" t="n">
-        <v>3.86833417</v>
+        <v>0.28408487</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
@@ -12755,10 +12755,10 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>-9.46663963</v>
+        <v>-9.450934670000001</v>
       </c>
       <c r="E425" t="n">
-        <v>8.366441310000001</v>
+        <v>4.80173325</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
@@ -12787,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="E426" t="n">
-        <v>12.98374733</v>
+        <v>10.57051808</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
@@ -12813,10 +12813,10 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0.20357806</v>
+        <v>0.20501493</v>
       </c>
       <c r="E427" t="n">
-        <v>3.95110597</v>
+        <v>0.36537035</v>
       </c>
       <c r="F427" t="n">
         <v>0.246357288</v>
@@ -12842,10 +12842,10 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0.13304417</v>
+        <v>0.13654627</v>
       </c>
       <c r="E428" t="n">
-        <v>2.38312713</v>
+        <v>0.30313073</v>
       </c>
       <c r="F428" t="n">
         <v>0.09459242159999999</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="E429" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F429" t="n">
         <v>0</v>
@@ -12903,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="E430" t="n">
-        <v>2.09477756</v>
+        <v>1.29735158</v>
       </c>
       <c r="F430" t="n">
         <v>0</v>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="E431" t="n">
-        <v>6.06225642</v>
+        <v>0.18579928</v>
       </c>
       <c r="F431" t="n">
         <v>0</v>
@@ -12961,7 +12961,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>6.06225642</v>
+        <v>0.18579928</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
@@ -12987,10 +12987,10 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0.1315527</v>
+        <v>0.13197227</v>
       </c>
       <c r="E433" t="n">
-        <v>0.16461534</v>
+        <v>0.16453239</v>
       </c>
       <c r="F433" t="n">
         <v>0.128638848</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="E434" t="n">
-        <v>23.61643898</v>
+        <v>5.00409554</v>
       </c>
       <c r="F434" t="n">
         <v>0</v>
@@ -13048,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="E435" t="n">
-        <v>6.06225642</v>
+        <v>0.18579928</v>
       </c>
       <c r="F435" t="n">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E436" t="n">
-        <v>0.48626566</v>
+        <v>0.26954094</v>
       </c>
       <c r="F436" t="n">
         <v>0.0174832428</v>
@@ -13106,7 +13106,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E437" t="n">
-        <v>0.53106506</v>
+        <v>0.44427636</v>
       </c>
       <c r="F437" t="n">
         <v>0.0174832428</v>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>10.31782781</v>
+        <v>6.25880504</v>
       </c>
       <c r="F438" t="n">
         <v>0</v>
@@ -13161,10 +13161,10 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0.08398512</v>
+        <v>0.0843822</v>
       </c>
       <c r="E439" t="n">
-        <v>0.11224971</v>
+        <v>0.11200349</v>
       </c>
       <c r="F439" t="n">
         <v>0.1055128296</v>
@@ -13193,7 +13193,7 @@
         <v>0.00541321</v>
       </c>
       <c r="E440" t="n">
-        <v>4.02333824</v>
+        <v>1.02723844</v>
       </c>
       <c r="F440" t="n">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="E441" t="n">
-        <v>1.5484347</v>
+        <v>1.54072974</v>
       </c>
       <c r="F441" t="n">
         <v>0</v>
@@ -13251,7 +13251,7 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>4.73241693</v>
+        <v>1.19294182</v>
       </c>
       <c r="F442" t="n">
         <v>0</v>
@@ -13280,7 +13280,7 @@
         <v>0</v>
       </c>
       <c r="E443" t="n">
-        <v>1.21500391</v>
+        <v>0.6105118899999999</v>
       </c>
       <c r="F443" t="n">
         <v>0</v>
@@ -13338,7 +13338,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E445" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F445" t="n">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="E446" t="n">
-        <v>20.73876085</v>
+        <v>2.42372535</v>
       </c>
       <c r="F446" t="n">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0</v>
       </c>
       <c r="E447" t="n">
-        <v>4.20165338</v>
+        <v>0.61057764</v>
       </c>
       <c r="F447" t="n">
         <v>0</v>
@@ -13425,7 +13425,7 @@
         <v>0.05582115</v>
       </c>
       <c r="E448" t="n">
-        <v>2.58665929</v>
+        <v>1.01958114</v>
       </c>
       <c r="F448" t="n">
         <v>0.0579849096</v>
@@ -13454,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="E449" t="n">
-        <v>2.47275063</v>
+        <v>0.48629747</v>
       </c>
       <c r="F449" t="n">
         <v>0</v>
@@ -13483,7 +13483,7 @@
         <v>0.14233646</v>
       </c>
       <c r="E450" t="n">
-        <v>0.60715219</v>
+        <v>0.55354198</v>
       </c>
       <c r="F450" t="n">
         <v>0.07629290159999999</v>
@@ -13512,7 +13512,7 @@
         <v>0.08659401999999999</v>
       </c>
       <c r="E451" t="n">
-        <v>0.10556524</v>
+        <v>0.10555139</v>
       </c>
       <c r="F451" t="n">
         <v>0.018307992</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>3.18639163</v>
+        <v>2.66565942</v>
       </c>
       <c r="F452" t="n">
         <v>0</v>
@@ -13570,7 +13570,7 @@
         <v>0</v>
       </c>
       <c r="E453" t="n">
-        <v>2.90374827</v>
+        <v>2.62770453</v>
       </c>
       <c r="F453" t="n">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>2.90374827</v>
+        <v>2.62770453</v>
       </c>
       <c r="F454" t="n">
         <v>0</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="E455" t="n">
-        <v>2.90374827</v>
+        <v>2.62770453</v>
       </c>
       <c r="F455" t="n">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="E456" t="n">
-        <v>23.61643898</v>
+        <v>5.00303115</v>
       </c>
       <c r="F456" t="n">
         <v>0</v>
@@ -13686,7 +13686,7 @@
         <v>0.00541321</v>
       </c>
       <c r="E457" t="n">
-        <v>4.02333824</v>
+        <v>1.02723844</v>
       </c>
       <c r="F457" t="n">
         <v>0</v>
@@ -13715,7 +13715,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E458" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F458" t="n">
         <v>0</v>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="E459" t="n">
-        <v>2.09915566</v>
+        <v>0.11151902</v>
       </c>
       <c r="F459" t="n">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>8.326780769999999</v>
+        <v>8.24028893</v>
       </c>
       <c r="F460" t="n">
         <v>0</v>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>2.09915566</v>
+        <v>0.11151902</v>
       </c>
       <c r="F461" t="n">
         <v>0</v>
@@ -13828,10 +13828,10 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>0.14233646</v>
+        <v>0.14233669</v>
       </c>
       <c r="E462" t="n">
-        <v>0.60715219</v>
+        <v>0.55354198</v>
       </c>
       <c r="F462" t="n">
         <v>0.07629290159999999</v>
@@ -13860,7 +13860,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E463" t="n">
-        <v>1.51835352</v>
+        <v>0.12882128</v>
       </c>
       <c r="F463" t="n">
         <v>0</v>
@@ -13889,7 +13889,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E464" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F464" t="n">
         <v>0</v>
@@ -13944,10 +13944,10 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>7.38689136</v>
       </c>
       <c r="E466" t="n">
-        <v>41.2675121</v>
+        <v>28.21861884</v>
       </c>
       <c r="F466" t="n">
         <v>0</v>
@@ -13973,10 +13973,10 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>0.25743013</v>
       </c>
       <c r="E467" t="n">
-        <v>91.65679522000001</v>
+        <v>11.68058031</v>
       </c>
       <c r="F467" t="n">
         <v>0</v>
@@ -14034,7 +14034,7 @@
         <v>0.00258446</v>
       </c>
       <c r="E469" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F469" t="n">
         <v>0.002571251999999191</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="E471" t="n">
-        <v>3.13205808</v>
+        <v>3.08896624</v>
       </c>
       <c r="F471" t="n">
         <v>0</v>
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="E472" t="n">
-        <v>33.74042831</v>
+        <v>10.55308774</v>
       </c>
       <c r="F472" t="n">
         <v>0</v>
@@ -14150,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="E473" t="n">
-        <v>27.37285647</v>
+        <v>10.46224626</v>
       </c>
       <c r="F473" t="n">
         <v>0</v>
@@ -14179,7 +14179,7 @@
         <v>0</v>
       </c>
       <c r="E474" t="n">
-        <v>12.56930709</v>
+        <v>9.779178760000001</v>
       </c>
       <c r="F474" t="n">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="E475" t="n">
-        <v>87.27124139</v>
+        <v>10.74859591</v>
       </c>
       <c r="F475" t="n">
         <v>0</v>
@@ -14237,7 +14237,7 @@
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>34.47016454</v>
+        <v>10.56142179</v>
       </c>
       <c r="F476" t="n">
         <v>0</v>
@@ -14266,7 +14266,7 @@
         <v>0</v>
       </c>
       <c r="E477" t="n">
-        <v>32.74999304</v>
+        <v>10.52860537</v>
       </c>
       <c r="F477" t="n">
         <v>0</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="E478" t="n">
-        <v>21.36202465</v>
+        <v>10.33045895</v>
       </c>
       <c r="F478" t="n">
         <v>0</v>
@@ -14324,7 +14324,7 @@
         <v>0</v>
       </c>
       <c r="E479" t="n">
-        <v>3.13205808</v>
+        <v>3.08896624</v>
       </c>
       <c r="F479" t="n">
         <v>0</v>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>4.1753458</v>
+        <v>4.17538727</v>
       </c>
       <c r="E480" t="n">
-        <v>44.83189595</v>
+        <v>14.85182882</v>
       </c>
       <c r="F480" t="n">
         <v>0.3352141656000041</v>
@@ -14379,10 +14379,10 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>0.55481082</v>
+        <v>0.55481101</v>
       </c>
       <c r="E481" t="n">
-        <v>34.81024018</v>
+        <v>14.58497005</v>
       </c>
       <c r="F481" t="n">
         <v>0.7786259376</v>
@@ -14411,7 +14411,7 @@
         <v>0</v>
       </c>
       <c r="E482" t="n">
-        <v>34.27531446</v>
+        <v>10.67661856</v>
       </c>
       <c r="F482" t="n">
         <v>0</v>
@@ -14440,7 +14440,7 @@
         <v>0.00160165</v>
       </c>
       <c r="E483" t="n">
-        <v>25.89668467</v>
+        <v>6.67958784</v>
       </c>
       <c r="F483" t="n">
         <v>0.001647804</v>
@@ -14469,7 +14469,7 @@
         <v>0.00108118</v>
       </c>
       <c r="E484" t="n">
-        <v>209.0225828</v>
+        <v>10.8474421</v>
       </c>
       <c r="F484" t="n">
         <v>0.0011123736</v>
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="E485" t="n">
-        <v>18.01406191</v>
+        <v>6.56913623</v>
       </c>
       <c r="F485" t="n">
         <v>0</v>
@@ -14527,7 +14527,7 @@
         <v>0.00108118</v>
       </c>
       <c r="E486" t="n">
-        <v>0.36256124</v>
+        <v>0.26217258</v>
       </c>
       <c r="F486" t="n">
         <v>0.0011123736</v>
@@ -14556,7 +14556,7 @@
         <v>0</v>
       </c>
       <c r="E487" t="n">
-        <v>32.73747795</v>
+        <v>10.49886615</v>
       </c>
       <c r="F487" t="n">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="E488" t="n">
-        <v>18.48610463</v>
+        <v>10.12833164</v>
       </c>
       <c r="F488" t="n">
         <v>0</v>
@@ -14614,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="E489" t="n">
-        <v>0.91204228</v>
+        <v>0.52551057</v>
       </c>
       <c r="F489" t="n">
         <v>0</v>
@@ -14640,10 +14640,10 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0.00258446</v>
+        <v>0.00258451</v>
       </c>
       <c r="E490" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F490" t="n">
         <v>0.002571251999974322</v>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="E491" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F491" t="n">
         <v>0</v>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
       <c r="E492" t="n">
-        <v>13.17923227</v>
+        <v>9.55573998</v>
       </c>
       <c r="F492" t="n">
         <v>0</v>
@@ -14730,7 +14730,7 @@
         <v>0</v>
       </c>
       <c r="E493" t="n">
-        <v>209.05549103</v>
+        <v>10.84983021</v>
       </c>
       <c r="F493" t="n">
         <v>0</v>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="E494" t="n">
-        <v>40.92186186</v>
+        <v>10.40725777</v>
       </c>
       <c r="F494" t="n">
         <v>0</v>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E495" t="n">
-        <v>0.36392439</v>
+        <v>0.26486001</v>
       </c>
       <c r="F495" t="n">
         <v>0</v>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>28.21738623</v>
+        <v>10.12830133</v>
       </c>
       <c r="F496" t="n">
         <v>0</v>
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
       <c r="E497" t="n">
-        <v>209.05549103</v>
+        <v>10.84983021</v>
       </c>
       <c r="F497" t="n">
         <v>0</v>
@@ -14875,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="E498" t="n">
-        <v>62.37306762</v>
+        <v>10.7439054</v>
       </c>
       <c r="F498" t="n">
         <v>0</v>
@@ -14904,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="E499" t="n">
-        <v>59.13742178</v>
+        <v>10.59797027</v>
       </c>
       <c r="F499" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="E500" t="n">
-        <v>18.48483434</v>
+        <v>10.12658714</v>
       </c>
       <c r="F500" t="n">
         <v>0</v>
@@ -14962,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="E501" t="n">
-        <v>34.25539797</v>
+        <v>10.55813446</v>
       </c>
       <c r="F501" t="n">
         <v>0</v>
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>209.02150161</v>
+        <v>10.84636091</v>
       </c>
       <c r="F502" t="n">
         <v>0</v>
@@ -15020,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="E503" t="n">
-        <v>34.25539797</v>
+        <v>10.55813446</v>
       </c>
       <c r="F503" t="n">
         <v>0</v>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="E504" t="n">
-        <v>34.25539797</v>
+        <v>10.55813446</v>
       </c>
       <c r="F504" t="n">
         <v>0</v>
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="E505" t="n">
-        <v>29.64147043</v>
+        <v>10.3305991</v>
       </c>
       <c r="F505" t="n">
         <v>0</v>
@@ -15104,10 +15104,10 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E506" t="n">
-        <v>1.61772312</v>
+        <v>1.60008357</v>
       </c>
       <c r="F506" t="n">
         <v>0.06199089479999999</v>
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
       <c r="E507" t="n">
-        <v>13.11059949</v>
+        <v>6.64768443</v>
       </c>
       <c r="F507" t="n">
         <v>0</v>
@@ -15165,7 +15165,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>13.11059949</v>
+        <v>6.49728747</v>
       </c>
       <c r="F508" t="n">
         <v>0</v>
@@ -15194,7 +15194,7 @@
         <v>0</v>
       </c>
       <c r="E509" t="n">
-        <v>13.11059949</v>
+        <v>6.49728747</v>
       </c>
       <c r="F509" t="n">
         <v>0</v>
@@ -15223,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="E510" t="n">
-        <v>3.80007351</v>
+        <v>1.45985584</v>
       </c>
       <c r="F510" t="n">
         <v>0</v>
@@ -15249,10 +15249,10 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0.1315527</v>
+        <v>0.13197227</v>
       </c>
       <c r="E511" t="n">
-        <v>2.66690857</v>
+        <v>0.28408487</v>
       </c>
       <c r="F511" t="n">
         <v>0.128638848</v>
@@ -15278,10 +15278,10 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0.06380455</v>
+        <v>0.06380474</v>
       </c>
       <c r="E512" t="n">
-        <v>0.42640663</v>
+        <v>0.33353056</v>
       </c>
       <c r="F512" t="n">
         <v>0.04322583840000003</v>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
       <c r="E513" t="n">
-        <v>2.51668856</v>
+        <v>0.12618627</v>
       </c>
       <c r="F513" t="n">
         <v>0</v>
@@ -15336,10 +15336,10 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0.08201012000000001</v>
+        <v>0.08202017</v>
       </c>
       <c r="E514" t="n">
-        <v>2.85468468</v>
+        <v>0.2203321</v>
       </c>
       <c r="F514" t="n">
         <v>0.06199089479999999</v>
@@ -15368,7 +15368,7 @@
         <v>0</v>
       </c>
       <c r="E515" t="n">
-        <v>2.76529444</v>
+        <v>0.13360565</v>
       </c>
       <c r="F515" t="n">
         <v>0</v>
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="E516" t="n">
-        <v>3.61358539</v>
+        <v>0.41981385</v>
       </c>
       <c r="F516" t="n">
         <v>0</v>
@@ -15426,7 +15426,7 @@
         <v>0.04615374</v>
       </c>
       <c r="E517" t="n">
-        <v>4.29048993</v>
+        <v>1.22852487</v>
       </c>
       <c r="F517" t="n">
         <v>0.06777218759999999</v>
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="E518" t="n">
-        <v>8.11679384</v>
+        <v>7.99325922</v>
       </c>
       <c r="F518" t="n">
         <v>0</v>
@@ -15484,7 +15484,7 @@
         <v>0</v>
       </c>
       <c r="E519" t="n">
-        <v>18.5369242</v>
+        <v>10.30098296</v>
       </c>
       <c r="F519" t="n">
         <v>0</v>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="E520" t="n">
-        <v>12.61666898</v>
+        <v>9.7978209</v>
       </c>
       <c r="F520" t="n">
         <v>0</v>
@@ -15542,7 +15542,7 @@
         <v>0</v>
       </c>
       <c r="E521" t="n">
-        <v>8.191574429999999</v>
+        <v>5.00626747</v>
       </c>
       <c r="F521" t="n">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>0.00541321</v>
       </c>
       <c r="E522" t="n">
-        <v>4.02333824</v>
+        <v>1.02723844</v>
       </c>
       <c r="F522" t="n">
         <v>0.005632185599999999</v>
@@ -15600,7 +15600,7 @@
         <v>0</v>
       </c>
       <c r="E523" t="n">
-        <v>65.09386332</v>
+        <v>10.52649739</v>
       </c>
       <c r="F523" t="n">
         <v>0</v>
@@ -15629,7 +15629,7 @@
         <v>0</v>
       </c>
       <c r="E524" t="n">
-        <v>19.61103377</v>
+        <v>9.969256440000001</v>
       </c>
       <c r="F524" t="n">
         <v>0</v>
@@ -15658,7 +15658,7 @@
         <v>0.12897751</v>
       </c>
       <c r="E525" t="n">
-        <v>7.48108455</v>
+        <v>0.6828040399999999</v>
       </c>
       <c r="F525" t="n">
         <v>0.02063694479999978</v>
@@ -15687,7 +15687,7 @@
         <v>0.00151555</v>
       </c>
       <c r="E526" t="n">
-        <v>29.01480155</v>
+        <v>10.4438771</v>
       </c>
       <c r="F526" t="n">
         <v>0.0015766392</v>
@@ -15716,7 +15716,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E527" t="n">
-        <v>1.51835352</v>
+        <v>0.12882128</v>
       </c>
       <c r="F527" t="n">
         <v>0</v>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>0.36839019</v>
       </c>
       <c r="E528" t="n">
-        <v>31.75145201</v>
+        <v>11.86153387</v>
       </c>
       <c r="F528" t="n">
         <v>0</v>
@@ -15774,7 +15774,7 @@
         <v>0</v>
       </c>
       <c r="E529" t="n">
-        <v>9.744323830000001</v>
+        <v>6.27790598</v>
       </c>
       <c r="F529" t="n">
         <v>0</v>
@@ -15803,7 +15803,7 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>21.82848285</v>
+        <v>10.756942</v>
       </c>
       <c r="F530" t="n">
         <v>0</v>
@@ -15832,7 +15832,7 @@
         <v>0.01297629</v>
       </c>
       <c r="E531" t="n">
-        <v>0.1427895</v>
+        <v>0.14114227</v>
       </c>
       <c r="F531" t="n">
         <v>0.0135005556</v>
@@ -15861,7 +15861,7 @@
         <v>0.01297629</v>
       </c>
       <c r="E532" t="n">
-        <v>0.1427895</v>
+        <v>0.14114227</v>
       </c>
       <c r="F532" t="n">
         <v>0.0135005556</v>
@@ -15890,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="E533" t="n">
-        <v>17.92601147</v>
+        <v>9.99682707</v>
       </c>
       <c r="F533" t="n">
         <v>0</v>
@@ -15916,10 +15916,10 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>2.34002899</v>
+        <v>7.21182731</v>
       </c>
       <c r="E534" t="n">
-        <v>27.62098045</v>
+        <v>21.51370888</v>
       </c>
       <c r="F534" t="n">
         <v>0</v>
@@ -15945,10 +15945,10 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>0.23820294</v>
       </c>
       <c r="E535" t="n">
-        <v>17.69544934</v>
+        <v>9.341525819999999</v>
       </c>
       <c r="F535" t="n">
         <v>0</v>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
       <c r="E536" t="n">
-        <v>11.55098018</v>
+        <v>8.36832188</v>
       </c>
       <c r="F536" t="n">
         <v>0</v>
@@ -16006,7 +16006,7 @@
         <v>0.48453232</v>
       </c>
       <c r="E537" t="n">
-        <v>19.55117829</v>
+        <v>7.15212642</v>
       </c>
       <c r="F537" t="n">
         <v>0.7257034715999999</v>
@@ -16032,10 +16032,10 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>0.03303678</v>
+        <v>0.03306197</v>
       </c>
       <c r="E538" t="n">
-        <v>0.05848737</v>
+        <v>0.05847285</v>
       </c>
       <c r="F538" t="n">
         <v>0.0603850272</v>
@@ -16064,7 +16064,7 @@
         <v>0</v>
       </c>
       <c r="E539" t="n">
-        <v>2.47987634</v>
+        <v>2.46387217</v>
       </c>
       <c r="F539" t="n">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>2.14520924</v>
+        <v>2.13401265</v>
       </c>
       <c r="F540" t="n">
         <v>0</v>
@@ -16122,7 +16122,7 @@
         <v>0</v>
       </c>
       <c r="E541" t="n">
-        <v>2.94221693</v>
+        <v>2.93118629</v>
       </c>
       <c r="F541" t="n">
         <v>0</v>
@@ -16151,7 +16151,7 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>2.94221693</v>
+        <v>2.93118629</v>
       </c>
       <c r="F542" t="n">
         <v>0</v>
@@ -16180,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="E543" t="n">
-        <v>2.47968276</v>
+        <v>2.46387217</v>
       </c>
       <c r="F543" t="n">
         <v>0</v>
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="E544" t="n">
-        <v>2.14520924</v>
+        <v>2.13401265</v>
       </c>
       <c r="F544" t="n">
         <v>0</v>
@@ -16238,7 +16238,7 @@
         <v>0</v>
       </c>
       <c r="E545" t="n">
-        <v>8.11679384</v>
+        <v>7.99325922</v>
       </c>
       <c r="F545" t="n">
         <v>0</v>
@@ -16267,7 +16267,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>8.11679384</v>
+        <v>7.99325922</v>
       </c>
       <c r="F546" t="n">
         <v>0</v>
@@ -16296,7 +16296,7 @@
         <v>0</v>
       </c>
       <c r="E547" t="n">
-        <v>13.7438857</v>
+        <v>9.83898318</v>
       </c>
       <c r="F547" t="n">
         <v>0</v>
@@ -16325,7 +16325,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>10.39255455</v>
+        <v>9.428379140000001</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -16354,7 +16354,7 @@
         <v>0</v>
       </c>
       <c r="E549" t="n">
-        <v>19.73846847</v>
+        <v>10.14784028</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>19.73846847</v>
+        <v>10.14784028</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
@@ -16412,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="E551" t="n">
-        <v>8.191574429999999</v>
+        <v>5.00626747</v>
       </c>
       <c r="F551" t="n">
         <v>0</v>
@@ -16441,7 +16441,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>13.7959319</v>
+        <v>10.06843907</v>
       </c>
       <c r="F552" t="n">
         <v>0</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="E553" t="n">
-        <v>10.42310181</v>
+        <v>9.67932017</v>
       </c>
       <c r="F553" t="n">
         <v>0</v>
@@ -16499,7 +16499,7 @@
         <v>0</v>
       </c>
       <c r="E554" t="n">
-        <v>12.61666898</v>
+        <v>9.7978209</v>
       </c>
       <c r="F554" t="n">
         <v>0</v>
@@ -16528,7 +16528,7 @@
         <v>0</v>
       </c>
       <c r="E555" t="n">
-        <v>18.5369242</v>
+        <v>10.29920873</v>
       </c>
       <c r="F555" t="n">
         <v>0</v>
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="E556" t="n">
-        <v>8.7296098</v>
+        <v>6.19956336</v>
       </c>
       <c r="F556" t="n">
         <v>0</v>
@@ -16586,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="E557" t="n">
-        <v>10.31494904</v>
+        <v>6.21006844</v>
       </c>
       <c r="F557" t="n">
         <v>0</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
       <c r="E558" t="n">
-        <v>1.89067097</v>
+        <v>1.67925815</v>
       </c>
       <c r="F558" t="n">
         <v>0</v>
@@ -16644,7 +16644,7 @@
         <v>0</v>
       </c>
       <c r="E559" t="n">
-        <v>1.93795086</v>
+        <v>1.6686366</v>
       </c>
       <c r="F559" t="n">
         <v>0</v>
@@ -16673,7 +16673,7 @@
         <v>0</v>
       </c>
       <c r="E560" t="n">
-        <v>4.01737287</v>
+        <v>1.02182523</v>
       </c>
       <c r="F560" t="n">
         <v>0</v>
@@ -16702,7 +16702,7 @@
         <v>0</v>
       </c>
       <c r="E561" t="n">
-        <v>1.89067097</v>
+        <v>1.67925815</v>
       </c>
       <c r="F561" t="n">
         <v>0</v>
@@ -16731,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="E562" t="n">
-        <v>6.87292533</v>
+        <v>6.10614094</v>
       </c>
       <c r="F562" t="n">
         <v>0</v>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
       <c r="E563" t="n">
-        <v>4.01737287</v>
+        <v>1.02182523</v>
       </c>
       <c r="F563" t="n">
         <v>0</v>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>2.47695948</v>
+        <v>2.45579581</v>
       </c>
       <c r="F564" t="n">
         <v>0</v>
@@ -16815,10 +16815,10 @@
         </is>
       </c>
       <c r="D565" t="n">
-        <v>0.00043678</v>
+        <v>0.00043679</v>
       </c>
       <c r="E565" t="n">
-        <v>0.00144191</v>
+        <v>0.00090526</v>
       </c>
       <c r="F565" t="n">
         <v>0</v>
@@ -16847,7 +16847,7 @@
         <v>0.01297629</v>
       </c>
       <c r="E566" t="n">
-        <v>0.1427895</v>
+        <v>0.14114227</v>
       </c>
       <c r="F566" t="n">
         <v>0.0135005556</v>
@@ -16876,7 +16876,7 @@
         <v>0.10082706</v>
       </c>
       <c r="E567" t="n">
-        <v>3.18639163</v>
+        <v>2.66565942</v>
       </c>
       <c r="F567" t="n">
         <v>0.1049007276</v>
@@ -16905,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>18.57628142</v>
+        <v>10.25476431</v>
       </c>
       <c r="F568" t="n">
         <v>0</v>
@@ -16934,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="E569" t="n">
-        <v>18.57628142</v>
+        <v>10.25476431</v>
       </c>
       <c r="F569" t="n">
         <v>0</v>
@@ -16963,7 +16963,7 @@
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>18.57628142</v>
+        <v>10.25476431</v>
       </c>
       <c r="F570" t="n">
         <v>0</v>
@@ -16989,10 +16989,10 @@
         </is>
       </c>
       <c r="D571" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E571" t="n">
-        <v>2.35609306</v>
+        <v>2.33804151</v>
       </c>
       <c r="F571" t="n">
         <v>0</v>
@@ -17021,7 +17021,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E572" t="n">
-        <v>0.00010474</v>
+        <v>8.36e-05</v>
       </c>
       <c r="F572" t="n">
         <v>8.048399999993627e-05</v>
@@ -17050,7 +17050,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E573" t="n">
-        <v>1.51835352</v>
+        <v>0.12882128</v>
       </c>
       <c r="F573" t="n">
         <v>0</v>
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="E574" t="n">
-        <v>21.03904264</v>
+        <v>12.22645914</v>
       </c>
       <c r="F574" t="n">
         <v>0</v>
@@ -17108,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="E575" t="n">
-        <v>38.0934461</v>
+        <v>17.98109814</v>
       </c>
       <c r="F575" t="n">
         <v>0</v>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>9.850000000000001e-06</v>
+        <v>1e-05</v>
       </c>
       <c r="E576" t="n">
-        <v>0.00024097</v>
+        <v>2.435e-05</v>
       </c>
       <c r="F576" t="n">
         <v>4.236e-07</v>
@@ -17163,10 +17163,10 @@
         </is>
       </c>
       <c r="D577" t="n">
-        <v>3.94e-05</v>
+        <v>3.999e-05</v>
       </c>
       <c r="E577" t="n">
-        <v>0.00096388</v>
+        <v>9.739e-05</v>
       </c>
       <c r="F577" t="n">
         <v>1.6944e-06</v>
@@ -17195,7 +17195,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E578" t="n">
-        <v>0.00010474</v>
+        <v>8.36e-05</v>
       </c>
       <c r="F578" t="n">
         <v>8.048399999971423e-05</v>
@@ -17224,7 +17224,7 @@
         <v>0</v>
       </c>
       <c r="E579" t="n">
-        <v>9.443443159999999</v>
+        <v>9.289123650000001</v>
       </c>
       <c r="F579" t="n">
         <v>0</v>
@@ -17253,7 +17253,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E580" t="n">
-        <v>0.00010474</v>
+        <v>8.36e-05</v>
       </c>
       <c r="F580" t="n">
         <v>8.048399999971423e-05</v>
@@ -17279,10 +17279,10 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>0.09079319</v>
+        <v>0.09080294</v>
       </c>
       <c r="E581" t="n">
-        <v>4.9343344</v>
+        <v>1.96588422</v>
       </c>
       <c r="F581" t="n">
         <v>0.0314772924</v>
@@ -17308,10 +17308,10 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0.03303678</v>
+        <v>0.03306197</v>
       </c>
       <c r="E582" t="n">
-        <v>4.88455287</v>
+        <v>1.92966511</v>
       </c>
       <c r="F582" t="n">
         <v>0.0603850272</v>
@@ -17340,7 +17340,7 @@
         <v>2.1e-07</v>
       </c>
       <c r="E583" t="n">
-        <v>0.00011869</v>
+        <v>1.011e-05</v>
       </c>
       <c r="F583" t="n">
         <v>2.118e-07</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="E584" t="n">
-        <v>4.84270972</v>
+        <v>1.8806306</v>
       </c>
       <c r="F584" t="n">
         <v>0</v>
@@ -17395,10 +17395,10 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>0.07216643</v>
+        <v>0.07216662</v>
       </c>
       <c r="E585" t="n">
-        <v>0.66044066</v>
+        <v>0.64408839</v>
       </c>
       <c r="F585" t="n">
         <v>0.04103455559999971</v>
@@ -17424,10 +17424,10 @@
         </is>
       </c>
       <c r="D586" t="n">
-        <v>0.07216643</v>
+        <v>0.07216662</v>
       </c>
       <c r="E586" t="n">
-        <v>0.66044066</v>
+        <v>0.64408839</v>
       </c>
       <c r="F586" t="n">
         <v>0.04103455560000668</v>
@@ -17453,10 +17453,10 @@
         </is>
       </c>
       <c r="D587" t="n">
-        <v>0.02729787</v>
+        <v>0.0273126</v>
       </c>
       <c r="E587" t="n">
-        <v>2.1244586</v>
+        <v>1.32889968</v>
       </c>
       <c r="F587" t="n">
         <v>0.0104387748</v>
@@ -17482,10 +17482,10 @@
         </is>
       </c>
       <c r="D588" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E588" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F588" t="n">
         <v>0.0309952356</v>
@@ -17514,7 +17514,7 @@
         <v>0.07215207</v>
       </c>
       <c r="E589" t="n">
-        <v>0.66042494</v>
+        <v>0.64407152</v>
       </c>
       <c r="F589" t="n">
         <v>0.04103455559999971</v>
@@ -17540,10 +17540,10 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E590" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F590" t="n">
         <v>0.0309952356</v>
@@ -17569,10 +17569,10 @@
         </is>
       </c>
       <c r="D591" t="n">
-        <v>0.07216643</v>
+        <v>0.07216662</v>
       </c>
       <c r="E591" t="n">
-        <v>0.66044066</v>
+        <v>0.64408839</v>
       </c>
       <c r="F591" t="n">
         <v>0.0410345556000109</v>
@@ -17598,10 +17598,10 @@
         </is>
       </c>
       <c r="D592" t="n">
-        <v>0.08558754</v>
+        <v>0.08636708999999999</v>
       </c>
       <c r="E592" t="n">
-        <v>0.94646729</v>
+        <v>0.89988499</v>
       </c>
       <c r="F592" t="n">
         <v>0.0309952356</v>
@@ -17630,7 +17630,7 @@
         <v>0</v>
       </c>
       <c r="E593" t="n">
-        <v>3.61358539</v>
+        <v>0.41981385</v>
       </c>
       <c r="F593" t="n">
         <v>0</v>
@@ -17659,7 +17659,7 @@
         <v>0.04615374</v>
       </c>
       <c r="E594" t="n">
-        <v>0.0655544</v>
+        <v>0.06302631</v>
       </c>
       <c r="F594" t="n">
         <v>0.06777218759999999</v>
@@ -17685,10 +17685,10 @@
         </is>
       </c>
       <c r="D595" t="n">
-        <v>0.253292</v>
+        <v>0.25382333</v>
       </c>
       <c r="E595" t="n">
-        <v>17.5387277</v>
+        <v>6.79711786</v>
       </c>
       <c r="F595" t="n">
         <v>0.1282656563999982</v>
@@ -17714,10 +17714,10 @@
         </is>
       </c>
       <c r="D596" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E596" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F596" t="n">
         <v>0.1023010944</v>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E597" t="n">
-        <v>0.14280042</v>
+        <v>0.14129779</v>
       </c>
       <c r="F597" t="n">
         <v>0</v>
@@ -17775,7 +17775,7 @@
         <v>0</v>
       </c>
       <c r="E598" t="n">
-        <v>0.1462768</v>
+        <v>0.14462957</v>
       </c>
       <c r="F598" t="n">
         <v>0</v>
@@ -17804,7 +17804,7 @@
         <v>0</v>
       </c>
       <c r="E599" t="n">
-        <v>0.14465423</v>
+        <v>0.14311361</v>
       </c>
       <c r="F599" t="n">
         <v>0</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>0.23820294</v>
       </c>
       <c r="E600" t="n">
-        <v>17.69544934</v>
+        <v>9.341525819999999</v>
       </c>
       <c r="F600" t="n">
         <v>0</v>
@@ -17888,10 +17888,10 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>0.23820294</v>
       </c>
       <c r="E602" t="n">
-        <v>17.69544934</v>
+        <v>9.341525819999999</v>
       </c>
       <c r="F602" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0.01945866</v>
       </c>
       <c r="E603" t="n">
-        <v>0.14927188</v>
+        <v>0.14762465</v>
       </c>
       <c r="F603" t="n">
         <v>0.0202446912</v>
@@ -17949,7 +17949,7 @@
         <v>7.994e-05</v>
       </c>
       <c r="E604" t="n">
-        <v>0.45114227</v>
+        <v>0.44603578</v>
       </c>
       <c r="F604" t="n">
         <v>8.048399999993627e-05</v>
@@ -17978,7 +17978,7 @@
         <v>0</v>
       </c>
       <c r="E605" t="n">
-        <v>12.33720042</v>
+        <v>6.42571294</v>
       </c>
       <c r="F605" t="n">
         <v>0</v>
@@ -18007,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="E606" t="n">
-        <v>209.05549103</v>
+        <v>10.84983021</v>
       </c>
       <c r="F606" t="n">
         <v>0</v>
@@ -18036,7 +18036,7 @@
         <v>0</v>
       </c>
       <c r="E607" t="n">
-        <v>8.56610161</v>
+        <v>1.42007125</v>
       </c>
       <c r="F607" t="n">
         <v>0</v>
@@ -18062,10 +18062,10 @@
         </is>
       </c>
       <c r="D608" t="n">
-        <v>0</v>
+        <v>12.36907141</v>
       </c>
       <c r="E608" t="n">
-        <v>31.90260844</v>
+        <v>31.72575283</v>
       </c>
       <c r="F608" t="n">
         <v>0</v>
@@ -18094,7 +18094,7 @@
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>8.17793159</v>
+        <v>8.177789389999999</v>
       </c>
       <c r="F609" t="n">
         <v>0</v>
@@ -18123,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="E610" t="n">
-        <v>23.89854427</v>
+        <v>21.68786036</v>
       </c>
       <c r="F610" t="n">
         <v>0</v>
@@ -18152,7 +18152,7 @@
         <v>0</v>
       </c>
       <c r="E611" t="n">
-        <v>0.0030549</v>
+        <v>0.00305355</v>
       </c>
       <c r="F611" t="n">
         <v>0</v>
@@ -18178,10 +18178,10 @@
         </is>
       </c>
       <c r="D612" t="n">
-        <v>2.023e-05</v>
+        <v>2.024e-05</v>
       </c>
       <c r="E612" t="n">
-        <v>0.09856985</v>
+        <v>0.09841625</v>
       </c>
       <c r="F612" t="n">
         <v>0</v>
@@ -18207,10 +18207,10 @@
         </is>
       </c>
       <c r="D613" t="n">
-        <v>0.0008735700000000001</v>
+        <v>0.00087358</v>
       </c>
       <c r="E613" t="n">
-        <v>0.00288381</v>
+        <v>0.00181053</v>
       </c>
       <c r="F613" t="n">
         <v>0</v>
@@ -18236,10 +18236,10 @@
         </is>
       </c>
       <c r="D614" t="n">
-        <v>0.00043678</v>
+        <v>0.00043679</v>
       </c>
       <c r="E614" t="n">
-        <v>0.00144191</v>
+        <v>0.00090526</v>
       </c>
       <c r="F614" t="n">
         <v>0</v>
@@ -18268,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="E615" t="n">
-        <v>15.00631504</v>
+        <v>10.0484572</v>
       </c>
       <c r="F615" t="n">
         <v>0</v>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="E616" t="n">
-        <v>23.61643898</v>
+        <v>0.97358155</v>
       </c>
       <c r="F616" t="n">
         <v>0</v>
@@ -18384,7 +18384,7 @@
         <v>0.00268283</v>
       </c>
       <c r="E619" t="n">
-        <v>0.36524843</v>
+        <v>0.27235759</v>
       </c>
       <c r="F619" t="n">
         <v>0.0027601776</v>
@@ -18410,10 +18410,10 @@
         </is>
       </c>
       <c r="D620" t="n">
-        <v>0.22464825</v>
+        <v>0.22489583</v>
       </c>
       <c r="E620" t="n">
-        <v>4.8663255</v>
+        <v>3.17083175</v>
       </c>
       <c r="F620" t="n">
         <v>0.1196108024000125</v>
@@ -18439,10 +18439,10 @@
         </is>
       </c>
       <c r="D621" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E621" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F621" t="n">
         <v>0.1055128296</v>
@@ -18468,10 +18468,10 @@
         </is>
       </c>
       <c r="D622" t="n">
-        <v>0.08398512</v>
+        <v>0.08438134</v>
       </c>
       <c r="E622" t="n">
-        <v>1.68814989</v>
+        <v>0.24879096</v>
       </c>
       <c r="F622" t="n">
         <v>0.1055128296</v>
@@ -18500,7 +18500,7 @@
         <v>0</v>
       </c>
       <c r="E623" t="n">
-        <v>4.23484418</v>
+        <v>0.65589741</v>
       </c>
       <c r="F623" t="n">
         <v>0</v>
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="E624" t="n">
-        <v>0.22728017</v>
+        <v>0.21799541</v>
       </c>
       <c r="F624" t="n">
         <v>0</v>
@@ -18558,7 +18558,7 @@
         <v>0</v>
       </c>
       <c r="E625" t="n">
-        <v>21.91654888</v>
+        <v>10.12842337</v>
       </c>
       <c r="F625" t="n">
         <v>0</v>
@@ -18587,7 +18587,7 @@
         <v>0</v>
       </c>
       <c r="E626" t="n">
-        <v>21.91654888</v>
+        <v>10.12842337</v>
       </c>
       <c r="F626" t="n">
         <v>0</v>
@@ -18616,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="E627" t="n">
-        <v>9.99507414</v>
+        <v>9.406705179999999</v>
       </c>
       <c r="F627" t="n">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0</v>
       </c>
       <c r="E628" t="n">
-        <v>1.57573431</v>
+        <v>0.44698024</v>
       </c>
       <c r="F628" t="n">
         <v>0</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="E629" t="n">
-        <v>17.09851098</v>
+        <v>1.56947394</v>
       </c>
       <c r="F629" t="n">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>9.60261377</v>
+        <v>0.63048719</v>
       </c>
       <c r="F630" t="n">
         <v>0</v>
@@ -18761,7 +18761,7 @@
         <v>0.10474665</v>
       </c>
       <c r="E632" t="n">
-        <v>0.13158706</v>
+        <v>0.13051691</v>
       </c>
       <c r="F632" t="n">
         <v>0.08559897</v>
@@ -18787,10 +18787,10 @@
         </is>
       </c>
       <c r="D633" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E633" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F633" t="n">
         <v>0.1023010944</v>
@@ -18816,10 +18816,10 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>0.16111327</v>
+        <v>0.16187888</v>
       </c>
       <c r="E634" t="n">
-        <v>5.29785889</v>
+        <v>2.06006373</v>
       </c>
       <c r="F634" t="n">
         <v>0.1023010944</v>
@@ -18848,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="E635" t="n">
-        <v>21.918055</v>
+        <v>10.12842337</v>
       </c>
       <c r="F635" t="n">
         <v>0</v>
@@ -18877,7 +18877,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>7.48108455</v>
+        <v>0.6828040399999999</v>
       </c>
       <c r="F636" t="n">
         <v>0</v>
@@ -18906,7 +18906,7 @@
         <v>0.12897751</v>
       </c>
       <c r="E637" t="n">
-        <v>1.57562624</v>
+        <v>0.4543971</v>
       </c>
       <c r="F637" t="n">
         <v>0.02063694479999967</v>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>21.918055</v>
+        <v>10.12842337</v>
       </c>
       <c r="F638" t="n">
         <v>0</v>
@@ -18964,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="E639" t="n">
-        <v>1.70877061</v>
+        <v>0.11813778</v>
       </c>
       <c r="F639" t="n">
         <v>0</v>
@@ -18993,7 +18993,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E640" t="n">
-        <v>1.51824051</v>
+        <v>0.12882128</v>
       </c>
       <c r="F640" t="n">
         <v>0</v>
@@ -19022,7 +19022,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E641" t="n">
-        <v>0.53106506</v>
+        <v>0.44427636</v>
       </c>
       <c r="F641" t="n">
         <v>0.0174832428</v>
@@ -19051,7 +19051,7 @@
         <v>0.0168043</v>
       </c>
       <c r="E642" t="n">
-        <v>0.53106506</v>
+        <v>0.44427636</v>
       </c>
       <c r="F642" t="n">
         <v>0.0174832428</v>
@@ -19077,10 +19077,10 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E643" t="n">
-        <v>6.73141905</v>
+        <v>1.14546339</v>
       </c>
       <c r="F643" t="n">
         <v>0</v>
@@ -19109,7 +19109,7 @@
         <v>0</v>
       </c>
       <c r="E644" t="n">
-        <v>11.98903582</v>
+        <v>6.40815972</v>
       </c>
       <c r="F644" t="n">
         <v>0</v>
@@ -19138,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="E645" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F645" t="n">
         <v>0</v>
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="E646" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F646" t="n">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>0</v>
       </c>
       <c r="E647" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F647" t="n">
         <v>0</v>
@@ -19225,7 +19225,7 @@
         <v>0.00250586</v>
       </c>
       <c r="E648" t="n">
-        <v>6.49968225</v>
+        <v>5.97507892</v>
       </c>
       <c r="F648" t="n">
         <v>0.002607258</v>
@@ -19254,7 +19254,7 @@
         <v>0.00091952</v>
       </c>
       <c r="E649" t="n">
-        <v>6.4980959</v>
+        <v>5.97349258</v>
       </c>
       <c r="F649" t="n">
         <v>0.0009564888</v>
@@ -19283,7 +19283,7 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F650" t="n">
         <v>0</v>
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="E651" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F651" t="n">
         <v>0</v>
@@ -19341,7 +19341,7 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>11.98821198</v>
+        <v>6.40705599</v>
       </c>
       <c r="F652" t="n">
         <v>0</v>
@@ -19370,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="E653" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F653" t="n">
         <v>0</v>
@@ -19399,7 +19399,7 @@
         <v>0</v>
       </c>
       <c r="E654" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F654" t="n">
         <v>0</v>
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="E655" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F655" t="n">
         <v>0</v>
@@ -19457,7 +19457,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>11.98821198</v>
+        <v>6.40705599</v>
       </c>
       <c r="F656" t="n">
         <v>0</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="E657" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F657" t="n">
         <v>0</v>
@@ -19515,7 +19515,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>6.49717638</v>
+        <v>5.97257306</v>
       </c>
       <c r="F658" t="n">
         <v>0</v>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
       <c r="E659" t="n">
-        <v>6.49717638</v>
+        <v>5.97257306</v>
       </c>
       <c r="F659" t="n">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>0</v>
       </c>
       <c r="E660" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F660" t="n">
         <v>0</v>
@@ -19602,7 +19602,7 @@
         <v>0</v>
       </c>
       <c r="E661" t="n">
-        <v>11.98903582</v>
+        <v>6.40815972</v>
       </c>
       <c r="F661" t="n">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>7.27213054</v>
+        <v>6.13034558</v>
       </c>
       <c r="F662" t="n">
         <v>0</v>
@@ -19660,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="E663" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F663" t="n">
         <v>0</v>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="E664" t="n">
-        <v>7.27213054</v>
+        <v>6.13034558</v>
       </c>
       <c r="F664" t="n">
         <v>0</v>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="E665" t="n">
-        <v>11.98903582</v>
+        <v>6.40705599</v>
       </c>
       <c r="F665" t="n">
         <v>0</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="E666" t="n">
-        <v>14.3285576</v>
+        <v>0.46274863</v>
       </c>
       <c r="F666" t="n">
         <v>0</v>
@@ -19776,7 +19776,7 @@
         <v>0</v>
       </c>
       <c r="E667" t="n">
-        <v>27.94691125</v>
+        <v>1.58796183</v>
       </c>
       <c r="F667" t="n">
         <v>0</v>
@@ -19805,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="E668" t="n">
-        <v>20.65150013</v>
+        <v>1.5309158</v>
       </c>
       <c r="F668" t="n">
         <v>0</v>
@@ -19834,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="E669" t="n">
-        <v>14.85985154</v>
+        <v>6.47849129</v>
       </c>
       <c r="F669" t="n">
         <v>0</v>
@@ -19863,7 +19863,7 @@
         <v>0</v>
       </c>
       <c r="E670" t="n">
-        <v>7.27378473</v>
+        <v>0.40940884</v>
       </c>
       <c r="F670" t="n">
         <v>0</v>
@@ -19892,7 +19892,7 @@
         <v>0</v>
       </c>
       <c r="E671" t="n">
-        <v>1.19495403</v>
+        <v>0.42395444</v>
       </c>
       <c r="F671" t="n">
         <v>0</v>
@@ -19921,7 +19921,7 @@
         <v>0</v>
       </c>
       <c r="E672" t="n">
-        <v>2.35609118</v>
+        <v>2.33785769</v>
       </c>
       <c r="F672" t="n">
         <v>0</v>
@@ -19950,7 +19950,7 @@
         <v>0</v>
       </c>
       <c r="E673" t="n">
-        <v>3.19206548</v>
+        <v>2.77670397</v>
       </c>
       <c r="F673" t="n">
         <v>0</v>
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="E674" t="n">
-        <v>2.38312713</v>
+        <v>0.28135331</v>
       </c>
       <c r="F674" t="n">
         <v>0</v>
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="E675" t="n">
-        <v>2.24837052</v>
+        <v>0.24616384</v>
       </c>
       <c r="F675" t="n">
         <v>0</v>
@@ -20034,10 +20034,10 @@
         </is>
       </c>
       <c r="D676" t="n">
-        <v>0.0998653</v>
+        <v>0.09989845</v>
       </c>
       <c r="E676" t="n">
-        <v>4.09628258</v>
+        <v>2.94250036</v>
       </c>
       <c r="F676" t="n">
         <v>0.0894533064</v>
@@ -20063,10 +20063,10 @@
         </is>
       </c>
       <c r="D677" t="n">
-        <v>0.09985329</v>
+        <v>0.09989331</v>
       </c>
       <c r="E677" t="n">
-        <v>0.11957984</v>
+        <v>0.11521408</v>
       </c>
       <c r="F677" t="n">
         <v>0.0894533064</v>
@@ -20095,7 +20095,7 @@
         <v>0</v>
       </c>
       <c r="E678" t="n">
-        <v>0.00037073</v>
+        <v>0.00037009</v>
       </c>
       <c r="F678" t="n">
         <v>0</v>
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="E679" t="n">
-        <v>0.0003707</v>
+        <v>0.00037009</v>
       </c>
       <c r="F679" t="n">
         <v>0</v>
@@ -20153,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="E680" t="n">
-        <v>209.05549103</v>
+        <v>10.84983021</v>
       </c>
       <c r="F680" t="n">
         <v>0</v>
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="E681" t="n">
-        <v>0.00037072</v>
+        <v>0.00037008</v>
       </c>
       <c r="F681" t="n">
         <v>0</v>
@@ -20211,7 +20211,7 @@
         <v>0.00160165</v>
       </c>
       <c r="E682" t="n">
-        <v>0.36416725</v>
+        <v>0.2712764</v>
       </c>
       <c r="F682" t="n">
         <v>0.001647804</v>
@@ -20240,7 +20240,7 @@
         <v>0</v>
       </c>
       <c r="E683" t="n">
-        <v>2.35607638</v>
+        <v>2.3380245</v>
       </c>
       <c r="F683" t="n">
         <v>0</v>
@@ -20269,7 +20269,7 @@
         <v>0</v>
       </c>
       <c r="E684" t="n">
-        <v>0.00037073</v>
+        <v>0.00037009</v>
       </c>
       <c r="F684" t="n">
         <v>0</v>
@@ -20295,10 +20295,10 @@
         </is>
       </c>
       <c r="D685" t="n">
-        <v>2.33e-06</v>
+        <v>2.39e-06</v>
       </c>
       <c r="E685" t="n">
-        <v>2.35609306</v>
+        <v>2.33804151</v>
       </c>
       <c r="F685" t="n">
         <v>0</v>
@@ -20327,7 +20327,7 @@
         <v>0.13434317</v>
       </c>
       <c r="E686" t="n">
-        <v>7.65538393</v>
+        <v>0.68817509</v>
       </c>
       <c r="F686" t="n">
         <v>0.02615729999999972</v>
@@ -20356,7 +20356,7 @@
         <v>0.00661752</v>
       </c>
       <c r="E687" t="n">
-        <v>6.82188462</v>
+        <v>3.72634995</v>
       </c>
       <c r="F687" t="n">
         <v>0.009911392799999998</v>
@@ -20385,7 +20385,7 @@
         <v>0.00661752</v>
       </c>
       <c r="E688" t="n">
-        <v>6.82188462</v>
+        <v>3.72634995</v>
       </c>
       <c r="F688" t="n">
         <v>0.009911392799999998</v>
@@ -20414,7 +20414,7 @@
         <v>0</v>
       </c>
       <c r="E689" t="n">
-        <v>4.02884656</v>
+        <v>3.71973243</v>
       </c>
       <c r="F689" t="n">
         <v>0</v>
@@ -20443,7 +20443,7 @@
         <v>0</v>
       </c>
       <c r="E690" t="n">
-        <v>3.87846216</v>
+        <v>3.65231845</v>
       </c>
       <c r="F690" t="n">
         <v>0</v>
@@ -20472,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="E691" t="n">
-        <v>2.0973621</v>
+        <v>1.29993611</v>
       </c>
       <c r="F691" t="n">
         <v>0</v>
@@ -20498,10 +20498,10 @@
         </is>
       </c>
       <c r="D692" t="n">
-        <v>0.02729787</v>
+        <v>0.0273126</v>
       </c>
       <c r="E692" t="n">
-        <v>2.1244586</v>
+        <v>1.32889968</v>
       </c>
       <c r="F692" t="n">
         <v>0.0104387748</v>
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="E693" t="n">
-        <v>1.27186142</v>
+        <v>0.92580079</v>
       </c>
       <c r="F693" t="n">
         <v>0</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="E694" t="n">
-        <v>1.33354507</v>
+        <v>0.9296595600000001</v>
       </c>
       <c r="F694" t="n">
         <v>0</v>
@@ -20585,10 +20585,10 @@
         </is>
       </c>
       <c r="D695" t="n">
-        <v>0.02471349</v>
+        <v>0.02472809</v>
       </c>
       <c r="E695" t="n">
-        <v>0.03635475</v>
+        <v>0.03613547</v>
       </c>
       <c r="F695" t="n">
         <v>0.0104387748</v>
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="E696" t="n">
-        <v>1.82408456</v>
+        <v>1.05102114</v>
       </c>
       <c r="F696" t="n">
         <v>0</v>
@@ -20643,10 +20643,10 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>0.09079319</v>
+        <v>0.09080294</v>
       </c>
       <c r="E697" t="n">
-        <v>4.9343344</v>
+        <v>1.96588422</v>
       </c>
       <c r="F697" t="n">
         <v>0.0314772924</v>
@@ -20672,10 +20672,10 @@
         </is>
       </c>
       <c r="D698" t="n">
-        <v>0.09079319</v>
+        <v>0.09080294</v>
       </c>
       <c r="E698" t="n">
-        <v>0.10873773</v>
+        <v>0.10873714</v>
       </c>
       <c r="F698" t="n">
         <v>0.0314772924</v>
@@ -20733,7 +20733,7 @@
         <v>0</v>
       </c>
       <c r="E700" t="n">
-        <v>32.81382939</v>
+        <v>10.59428754</v>
       </c>
       <c r="F700" t="n">
         <v>0</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
       <c r="E701" t="n">
-        <v>26.96046586</v>
+        <v>10.45119103</v>
       </c>
       <c r="F701" t="n">
         <v>0</v>
@@ -20791,7 +20791,7 @@
         <v>8.118000000000001e-05</v>
       </c>
       <c r="E702" t="n">
-        <v>2.53089899</v>
+        <v>0.2216978</v>
       </c>
       <c r="F702" t="n">
         <v>0</v>
@@ -20817,10 +20817,10 @@
         </is>
       </c>
       <c r="D703" t="n">
-        <v>9.850000000000001e-06</v>
+        <v>1e-05</v>
       </c>
       <c r="E703" t="n">
-        <v>0.00024097</v>
+        <v>2.435e-05</v>
       </c>
       <c r="F703" t="n">
         <v>4.236e-07</v>
@@ -20849,7 +20849,7 @@
         <v>4.2e-07</v>
       </c>
       <c r="E704" t="n">
-        <v>0.00023737</v>
+        <v>2.022e-05</v>
       </c>
       <c r="F704" t="n">
         <v>4.236e-07</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="E705" t="n">
-        <v>17.27937004</v>
+        <v>6.53207846</v>
       </c>
       <c r="F705" t="n">
         <v>0</v>
@@ -20907,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="E706" t="n">
-        <v>1.32760421</v>
+        <v>1.31179809</v>
       </c>
       <c r="F706" t="n">
         <v>0</v>
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="E707" t="n">
-        <v>18.01406191</v>
+        <v>6.56913623</v>
       </c>
       <c r="F707" t="n">
         <v>0</v>
@@ -20965,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="E708" t="n">
-        <v>18.01406191</v>
+        <v>6.56913623</v>
       </c>
       <c r="F708" t="n">
         <v>0</v>
@@ -20994,7 +20994,7 @@
         <v>0</v>
       </c>
       <c r="E709" t="n">
-        <v>15.00631504</v>
+        <v>10.0484572</v>
       </c>
       <c r="F709" t="n">
         <v>0</v>
@@ -21023,7 +21023,7 @@
         <v>0</v>
       </c>
       <c r="E710" t="n">
-        <v>40.92186186</v>
+        <v>10.40725777</v>
       </c>
       <c r="F710" t="n">
         <v>0</v>
@@ -21052,7 +21052,7 @@
         <v>0</v>
       </c>
       <c r="E711" t="n">
-        <v>40.61952953</v>
+        <v>10.40406569</v>
       </c>
       <c r="F711" t="n">
         <v>0</v>
@@ -21081,7 +21081,7 @@
         <v>0</v>
       </c>
       <c r="E712" t="n">
-        <v>3.09185685</v>
+        <v>0.26228998</v>
       </c>
       <c r="F712" t="n">
         <v>0</v>
@@ -21107,10 +21107,10 @@
         </is>
       </c>
       <c r="D713" t="n">
-        <v>0.06760488000000001</v>
+        <v>0.06845305</v>
       </c>
       <c r="E713" t="n">
-        <v>0.09493641</v>
+        <v>0.09492558</v>
       </c>
       <c r="F713" t="n">
         <v>0.11771844</v>
@@ -21139,7 +21139,7 @@
         <v>0</v>
       </c>
       <c r="E714" t="n">
-        <v>3.05464188</v>
+        <v>2.32768238</v>
       </c>
       <c r="F714" t="n">
         <v>0</v>
@@ -21168,7 +21168,7 @@
         <v>0.04680254</v>
       </c>
       <c r="E715" t="n">
-        <v>0.53398238</v>
+        <v>0.47547161</v>
       </c>
       <c r="F715" t="n">
         <v>0.04869371353167359</v>
@@ -21197,7 +21197,7 @@
         <v>0.01746456</v>
       </c>
       <c r="E716" t="n">
-        <v>0.47097638</v>
+        <v>0.40469114</v>
       </c>
       <c r="F716" t="n">
         <v>0.0181698520683264</v>
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="E717" t="n">
-        <v>12.98374733</v>
+        <v>10.57002779</v>
       </c>
       <c r="F717" t="n">
         <v>0</v>
@@ -21255,7 +21255,7 @@
         <v>0</v>
       </c>
       <c r="E718" t="n">
-        <v>12.38762494</v>
+        <v>2.61041445</v>
       </c>
       <c r="F718" t="n">
         <v>0</v>
@@ -21284,7 +21284,7 @@
         <v>0</v>
       </c>
       <c r="E719" t="n">
-        <v>10.45916297</v>
+        <v>5.87012922</v>
       </c>
       <c r="F719" t="n">
         <v>0</v>
@@ -21313,7 +21313,7 @@
         <v>0</v>
       </c>
       <c r="E720" t="n">
-        <v>8.25870317</v>
+        <v>-0.28666058</v>
       </c>
       <c r="F720" t="n">
         <v>0</v>
@@ -21342,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="E721" t="n">
-        <v>1.21500391</v>
+        <v>0.6105118899999999</v>
       </c>
       <c r="F721" t="n">
         <v>0</v>
@@ -21371,7 +21371,7 @@
         <v>0</v>
       </c>
       <c r="E722" t="n">
-        <v>0.22589363</v>
+        <v>0.1537616</v>
       </c>
       <c r="F722" t="n">
         <v>0</v>
@@ -21400,7 +21400,7 @@
         <v>0</v>
       </c>
       <c r="E723" t="n">
-        <v>8.17793159</v>
+        <v>8.17715093</v>
       </c>
       <c r="F723" t="n">
         <v>0</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="E724" t="n">
-        <v>0.36416725</v>
+        <v>0.2712764</v>
       </c>
       <c r="F724" t="n">
         <v>0</v>
@@ -21458,7 +21458,7 @@
         <v>0</v>
       </c>
       <c r="E725" t="n">
-        <v>12.56633566</v>
+        <v>6.33056975</v>
       </c>
       <c r="F725" t="n">
         <v>0</v>
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="E727" t="n">
-        <v>12.56601428</v>
+        <v>6.33001473</v>
       </c>
       <c r="F727" t="n">
         <v>0</v>
@@ -21574,7 +21574,7 @@
         <v>0</v>
       </c>
       <c r="E729" t="n">
-        <v>0.42640663</v>
+        <v>0.33357639</v>
       </c>
       <c r="F729" t="n">
         <v>0</v>
@@ -21603,7 +21603,7 @@
         <v>0</v>
       </c>
       <c r="E730" t="n">
-        <v>1.79601224</v>
+        <v>12.71759117</v>
       </c>
       <c r="F730" t="n">
         <v>0</v>
@@ -21632,7 +21632,7 @@
         <v>0</v>
       </c>
       <c r="E731" t="n">
-        <v>24.39422049</v>
+        <v>24.00952638</v>
       </c>
       <c r="F731" t="n">
         <v>0</v>
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
       <c r="E732" t="n">
-        <v>9.99507414</v>
+        <v>9.406705179999999</v>
       </c>
       <c r="F732" t="n">
         <v>0</v>
@@ -21690,7 +21690,7 @@
         <v>0</v>
       </c>
       <c r="E733" t="n">
-        <v>2.34002899</v>
+        <v>7.21182731</v>
       </c>
       <c r="F733" t="n">
         <v>0</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="E734" t="n">
-        <v>21.35821268</v>
+        <v>20.88496988</v>
       </c>
       <c r="F734" t="n">
         <v>0</v>
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="E736" t="n">
-        <v>0.09854876</v>
+        <v>0.09839516</v>
       </c>
       <c r="F736" t="n">
         <v>0</v>
@@ -21806,7 +21806,7 @@
         <v>0</v>
       </c>
       <c r="E737" t="n">
-        <v>2.36608879</v>
+        <v>2.24079131</v>
       </c>
       <c r="F737" t="n">
         <v>0</v>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="E738" t="n">
-        <v>1.7622799</v>
+        <v>0.94292421</v>
       </c>
       <c r="F738" t="n">
         <v>0</v>
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="E739" t="n">
-        <v>2.09915566</v>
+        <v>0.11151902</v>
       </c>
       <c r="F739" t="n">
         <v>0</v>
@@ -21893,7 +21893,7 @@
         <v>0</v>
       </c>
       <c r="E740" t="n">
-        <v>6.9126937</v>
+        <v>3.09655558</v>
       </c>
       <c r="F740" t="n">
         <v>0</v>
@@ -21922,7 +21922,7 @@
         <v>0</v>
       </c>
       <c r="E741" t="n">
-        <v>7.10644488</v>
+        <v>3.58098573</v>
       </c>
       <c r="F741" t="n">
         <v>0</v>
@@ -21951,7 +21951,7 @@
         <v>0</v>
       </c>
       <c r="E742" t="n">
-        <v>0.90708704</v>
+        <v>16.17617746</v>
       </c>
       <c r="F742" t="n">
         <v>0</v>
@@ -21980,7 +21980,7 @@
         <v>0</v>
       </c>
       <c r="E743" t="n">
-        <v>24.39827479</v>
+        <v>24.39566747</v>
       </c>
       <c r="F743" t="n">
         <v>0</v>
@@ -22009,7 +22009,7 @@
         <v>0</v>
       </c>
       <c r="E744" t="n">
-        <v>1.15064856</v>
+        <v>0.55849171</v>
       </c>
       <c r="F744" t="n">
         <v>0</v>
@@ -22038,7 +22038,7 @@
         <v>0</v>
       </c>
       <c r="E745" t="n">
-        <v>2.75287584</v>
+        <v>2.62716072</v>
       </c>
       <c r="F745" t="n">
         <v>0</v>
@@ -22067,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="E746" t="n">
-        <v>19.58724118</v>
+        <v>8.14518206</v>
       </c>
       <c r="F746" t="n">
         <v>0</v>
@@ -22096,7 +22096,7 @@
         <v>0</v>
       </c>
       <c r="E747" t="n">
-        <v>27.40788345</v>
+        <v>10.49726451</v>
       </c>
       <c r="F747" t="n">
         <v>0</v>
@@ -22154,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="E749" t="n">
-        <v>2.20561895</v>
+        <v>0.4118997</v>
       </c>
       <c r="F749" t="n">
         <v>0</v>
@@ -22183,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="E750" t="n">
-        <v>108.21005026</v>
+        <v>108.04065654</v>
       </c>
       <c r="F750" t="n">
         <v>0</v>
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="E752" t="n">
-        <v>999.37782784</v>
+        <v>998.97699297</v>
       </c>
       <c r="F752" t="n">
         <v>0</v>
@@ -22270,7 +22270,7 @@
         <v>0</v>
       </c>
       <c r="E753" t="n">
-        <v>110.23792808</v>
+        <v>110.12933667</v>
       </c>
       <c r="F753" t="n">
         <v>0</v>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="E754" t="n">
-        <v>2.19252572</v>
+        <v>0.30313073</v>
       </c>
       <c r="F754" t="n">
         <v>0</v>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
       <c r="E755" t="n">
-        <v>10.16614467</v>
+        <v>0.5404345</v>
       </c>
       <c r="F755" t="n">
         <v>0</v>
@@ -22357,7 +22357,7 @@
         <v>0</v>
       </c>
       <c r="E756" t="n">
-        <v>10.30951737</v>
+        <v>0.68064057</v>
       </c>
       <c r="F756" t="n">
         <v>0</v>
@@ -22386,7 +22386,7 @@
         <v>0</v>
       </c>
       <c r="E757" t="n">
-        <v>2.66690857</v>
+        <v>0.28408487</v>
       </c>
       <c r="F757" t="n">
         <v>0</v>
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="E758" t="n">
-        <v>2.66690857</v>
+        <v>0.28408487</v>
       </c>
       <c r="F758" t="n">
         <v>0</v>
@@ -22444,7 +22444,7 @@
         <v>0</v>
       </c>
       <c r="E759" t="n">
-        <v>2.66690857</v>
+        <v>0.28408487</v>
       </c>
       <c r="F759" t="n">
         <v>0</v>
@@ -22502,7 +22502,7 @@
         <v>0</v>
       </c>
       <c r="E761" t="n">
-        <v>19.32524203</v>
+        <v>4.0228719</v>
       </c>
       <c r="F761" t="n">
         <v>0</v>
@@ -22531,7 +22531,7 @@
         <v>0</v>
       </c>
       <c r="E762" t="n">
-        <v>3.68638537</v>
+        <v>2.7461837</v>
       </c>
       <c r="F762" t="n">
         <v>0</v>
@@ -22560,7 +22560,7 @@
         <v>0</v>
       </c>
       <c r="E763" t="n">
-        <v>9.114165849999999</v>
+        <v>0.43067571</v>
       </c>
       <c r="F763" t="n">
         <v>0</v>
@@ -22589,7 +22589,7 @@
         <v>0</v>
       </c>
       <c r="E764" t="n">
-        <v>23.93432397</v>
+        <v>2.12039665</v>
       </c>
       <c r="F764" t="n">
         <v>0</v>
@@ -22618,7 +22618,7 @@
         <v>0</v>
       </c>
       <c r="E765" t="n">
-        <v>1.26167023</v>
+        <v>0.73442776</v>
       </c>
       <c r="F765" t="n">
         <v>0</v>
@@ -22647,7 +22647,7 @@
         <v>0</v>
       </c>
       <c r="E766" t="n">
-        <v>1.29953004</v>
+        <v>0.70653084</v>
       </c>
       <c r="F766" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="E767" t="n">
-        <v>2.60381544</v>
+        <v>2.47830825</v>
       </c>
       <c r="F767" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="E768" t="n">
-        <v>8.13192617</v>
+        <v>8.02511052</v>
       </c>
       <c r="F768" t="n">
         <v>0</v>
@@ -22734,7 +22734,7 @@
         <v>0</v>
       </c>
       <c r="E769" t="n">
-        <v>2.60381544</v>
+        <v>2.47830825</v>
       </c>
       <c r="F769" t="n">
         <v>0</v>
@@ -22763,7 +22763,7 @@
         <v>0</v>
       </c>
       <c r="E770" t="n">
-        <v>0.42640663</v>
+        <v>0.33353056</v>
       </c>
       <c r="F770" t="n">
         <v>0</v>
@@ -22792,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E771" t="n">
-        <v>8.7296098</v>
+        <v>6.19956336</v>
       </c>
       <c r="F771" t="n">
         <v>0</v>
@@ -22821,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="E772" t="n">
-        <v>1.72304161</v>
+        <v>1.62393732</v>
       </c>
       <c r="F772" t="n">
         <v>0</v>
@@ -22850,7 +22850,7 @@
         <v>0</v>
       </c>
       <c r="E773" t="n">
-        <v>8.72892839</v>
+        <v>6.20063124</v>
       </c>
       <c r="F773" t="n">
         <v>0</v>
@@ -22879,7 +22879,7 @@
         <v>0</v>
       </c>
       <c r="E774" t="n">
-        <v>9.68452723</v>
+        <v>6.25880504</v>
       </c>
       <c r="F774" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="E775" t="n">
-        <v>2.91945267</v>
+        <v>3.13846336</v>
       </c>
       <c r="F775" t="n">
         <v>0</v>
@@ -22966,7 +22966,7 @@
         <v>0</v>
       </c>
       <c r="E777" t="n">
-        <v>0.90708704</v>
+        <v>16.17698885</v>
       </c>
       <c r="F777" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="E778" t="n">
-        <v>24.39827479</v>
+        <v>24.39566747</v>
       </c>
       <c r="F778" t="n">
         <v>0</v>
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="E779" t="n">
-        <v>1.79645929</v>
+        <v>12.71827772</v>
       </c>
       <c r="F779" t="n">
         <v>0</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="E780" t="n">
-        <v>24.39422049</v>
+        <v>24.00952638</v>
       </c>
       <c r="F780" t="n">
         <v>0</v>
@@ -23082,7 +23082,7 @@
         <v>0</v>
       </c>
       <c r="E781" t="n">
-        <v>4.65297098</v>
+        <v>1.85141564</v>
       </c>
       <c r="F781" t="n">
         <v>0</v>
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="E782" t="n">
-        <v>1.22943656</v>
+        <v>0.88137964</v>
       </c>
       <c r="F782" t="n">
         <v>0</v>
@@ -23169,7 +23169,7 @@
         <v>0</v>
       </c>
       <c r="E784" t="n">
-        <v>15.00631504</v>
+        <v>10.0484573</v>
       </c>
       <c r="F784" t="n">
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="E785" t="n">
-        <v>17.27937004</v>
+        <v>6.53095338</v>
       </c>
       <c r="F785" t="n">
         <v>0</v>
@@ -23227,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="E786" t="n">
-        <v>1.49814931</v>
+        <v>0.21693779</v>
       </c>
       <c r="F786" t="n">
         <v>0</v>
@@ -23256,7 +23256,7 @@
         <v>0</v>
       </c>
       <c r="E787" t="n">
-        <v>7.12271566</v>
+        <v>6.02817703</v>
       </c>
       <c r="F787" t="n">
         <v>0</v>
@@ -23285,7 +23285,7 @@
         <v>0</v>
       </c>
       <c r="E788" t="n">
-        <v>8.56610161</v>
+        <v>1.42007125</v>
       </c>
       <c r="F788" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="E789" t="n">
-        <v>15.00631504</v>
+        <v>10.05018824</v>
       </c>
       <c r="F789" t="n">
         <v>0</v>
@@ -23343,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="E790" t="n">
-        <v>17.27937004</v>
+        <v>6.53095338</v>
       </c>
       <c r="F790" t="n">
         <v>0</v>
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="E791" t="n">
-        <v>1.59627433</v>
+        <v>0.74432974</v>
       </c>
       <c r="F791" t="n">
         <v>0</v>
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="E792" t="n">
-        <v>7.46864819</v>
+        <v>5.34784785</v>
       </c>
       <c r="F792" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="E793" t="n">
-        <v>0.56099006</v>
+        <v>0.26871977</v>
       </c>
       <c r="F793" t="n">
         <v>0</v>
@@ -23459,7 +23459,7 @@
         <v>0</v>
       </c>
       <c r="E794" t="n">
-        <v>10.8960705</v>
+        <v>10.29002276</v>
       </c>
       <c r="F794" t="n">
         <v>0</v>
@@ -23488,7 +23488,7 @@
         <v>0</v>
       </c>
       <c r="E795" t="n">
-        <v>0.56099006</v>
+        <v>0.26871977</v>
       </c>
       <c r="F795" t="n">
         <v>0</v>
@@ -23517,7 +23517,7 @@
         <v>0</v>
       </c>
       <c r="E796" t="n">
-        <v>4.56832809</v>
+        <v>2.91166675</v>
       </c>
       <c r="F796" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="E797" t="n">
-        <v>2.85473596</v>
+        <v>0.8507645</v>
       </c>
       <c r="F797" t="n">
         <v>0</v>
@@ -23575,7 +23575,7 @@
         <v>0</v>
       </c>
       <c r="E798" t="n">
-        <v>3.64791556</v>
+        <v>2.58791694</v>
       </c>
       <c r="F798" t="n">
         <v>0</v>
@@ -23604,7 +23604,7 @@
         <v>0</v>
       </c>
       <c r="E799" t="n">
-        <v>12.26936443</v>
+        <v>5.92510285</v>
       </c>
       <c r="F799" t="n">
         <v>0</v>
@@ -23633,7 +23633,7 @@
         <v>0</v>
       </c>
       <c r="E800" t="n">
-        <v>12.26856972</v>
+        <v>12.26832247</v>
       </c>
       <c r="F800" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="E801" t="n">
-        <v>3.74668559</v>
+        <v>0.34316458</v>
       </c>
       <c r="F801" t="n">
         <v>0</v>
